--- a/Stochastic_engine/SCE_output.xlsx
+++ b/Stochastic_engine/SCE_output.xlsx
@@ -486,7 +486,7 @@
         <v>128.0905451210334</v>
       </c>
       <c r="J2">
-        <v>2401.828363068581</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>7413.578034943269</v>
@@ -495,10 +495,10 @@
         <v>242.4319710993417</v>
       </c>
       <c r="M2">
-        <v>13051.16986845778</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13064.40381249145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -530,7 +530,7 @@
         <v>866.1687102756835</v>
       </c>
       <c r="J3">
-        <v>1491.336349502684</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>4549.344698203121</v>
@@ -539,10 +539,10 @@
         <v>148.7684620297063</v>
       </c>
       <c r="M3">
-        <v>8103.694805026952</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>8111.911987440219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -574,7 +574,7 @@
         <v>311.5014326539676</v>
       </c>
       <c r="J4">
-        <v>916.1628397119252</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>4833.181726096689</v>
@@ -583,10 +583,10 @@
         <v>158.0502379574541</v>
       </c>
       <c r="M4">
-        <v>4978.289469849006</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>4983.337477413953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -618,7 +618,7 @@
         <v>371.9923532008975</v>
       </c>
       <c r="J5">
-        <v>1236.925480895781</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>4296.733026417623</v>
@@ -627,10 +627,10 @@
         <v>140.5077888129406</v>
       </c>
       <c r="M5">
-        <v>6721.264855566082</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>6728.080247889569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -662,7 +662,7 @@
         <v>306.0247638278845</v>
       </c>
       <c r="J6">
-        <v>381.0603181610467</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>4598.736207747896</v>
@@ -671,10 +671,10 @@
         <v>150.3836174860963</v>
       </c>
       <c r="M6">
-        <v>2070.623787660876</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2072.723409349727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -706,7 +706,7 @@
         <v>286.0192144420528</v>
       </c>
       <c r="J7">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>3942.638947280896</v>
@@ -715,10 +715,10 @@
         <v>128.9285317854829</v>
       </c>
       <c r="M7">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -750,7 +750,7 @@
         <v>314.2710488629079</v>
       </c>
       <c r="J8">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>4650.279932258062</v>
@@ -759,10 +759,10 @@
         <v>152.0691526854161</v>
       </c>
       <c r="M8">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -794,7 +794,7 @@
         <v>449.6156069985162</v>
       </c>
       <c r="J9">
-        <v>15.26526689086676</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>5410.595466557722</v>
@@ -803,10 +803,10 @@
         <v>176.9322879716323</v>
       </c>
       <c r="M9">
-        <v>82.94913755848494</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>83.0332483512456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -838,7 +838,7 @@
         <v>402.9606584140046</v>
       </c>
       <c r="J10">
-        <v>55.7764844317844</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>7254.168214625201</v>
@@ -847,10 +847,10 @@
         <v>237.2190986145379</v>
       </c>
       <c r="M10">
-        <v>303.0809295859012</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>303.3882549904617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -882,7 +882,7 @@
         <v>390.3033037938411</v>
       </c>
       <c r="J11">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>9123.822889815658</v>
@@ -891,10 +891,10 @@
         <v>298.3588163115933</v>
       </c>
       <c r="M11">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -926,7 +926,7 @@
         <v>669.1425051686068</v>
       </c>
       <c r="J12">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>8241.670101542923</v>
@@ -935,10 +935,10 @@
         <v>269.5114718493486</v>
       </c>
       <c r="M12">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -970,7 +970,7 @@
         <v>735.4316579489245</v>
       </c>
       <c r="J13">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>11370.07870573008</v>
@@ -979,10 +979,10 @@
         <v>371.8137961443727</v>
       </c>
       <c r="M13">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1014,7 +1014,7 @@
         <v>728.4958447076868</v>
       </c>
       <c r="J14">
-        <v>64.68377915417663</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>14856.99525364402</v>
@@ -1023,10 +1023,10 @@
         <v>485.8397155837107</v>
       </c>
       <c r="M14">
-        <v>351.481813794728</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>351.8382179101823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1058,7 +1058,7 @@
         <v>926.9300669936102</v>
       </c>
       <c r="J15">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>22810.85220134036</v>
@@ -1067,10 +1067,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M15">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1102,7 +1102,7 @@
         <v>810.5886953214823</v>
       </c>
       <c r="J16">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>20484.59964950888</v>
@@ -1111,10 +1111,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M16">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1146,7 +1146,7 @@
         <v>1064.798696058522</v>
       </c>
       <c r="J17">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>26569.02079133327</v>
@@ -1155,10 +1155,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M17">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1190,7 +1190,7 @@
         <v>1310.98979341675</v>
       </c>
       <c r="J18">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>25204.07876463728</v>
@@ -1199,10 +1199,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M18">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1234,7 +1234,7 @@
         <v>1179.915704966436</v>
       </c>
       <c r="J19">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>22708.26048573244</v>
@@ -1243,10 +1243,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M19">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1278,7 +1278,7 @@
         <v>1239.970025824368</v>
       </c>
       <c r="J20">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>22708.26048573244</v>
@@ -1287,10 +1287,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M20">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1322,7 +1322,7 @@
         <v>1471.737860729431</v>
       </c>
       <c r="J21">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>22708.26048573244</v>
@@ -1331,10 +1331,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M21">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1366,7 +1366,7 @@
         <v>1131.02864888101</v>
       </c>
       <c r="J22">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>22708.26048573244</v>
@@ -1375,10 +1375,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M22">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1410,7 +1410,7 @@
         <v>1269.879459064468</v>
       </c>
       <c r="J23">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>22708.26048573244</v>
@@ -1419,10 +1419,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M23">
-        <v>4467.734700556956</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1454,7 +1454,7 @@
         <v>1018.219092874886</v>
       </c>
       <c r="J24">
-        <v>901.6635029290945</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>22708.26048573244</v>
@@ -1463,10 +1463,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M24">
-        <v>4467.734700556956</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1498,7 +1498,7 @@
         <v>680.0124246983759</v>
       </c>
       <c r="J25">
-        <v>492.7050507929931</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>22708.26048573244</v>
@@ -1507,10 +1507,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M25">
-        <v>4420.945591062334</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2973.713767000772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1542,7 +1542,7 @@
         <v>465.9971771476314</v>
       </c>
       <c r="J26">
-        <v>524.368699944044</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>22708.26048573244</v>
@@ -1551,10 +1551,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M26">
-        <v>2849.339728809204</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>2852.228971910323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1586,7 +1586,7 @@
         <v>342.8054285370433</v>
       </c>
       <c r="J27">
-        <v>40.68318336937503</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>8168.213225615213</v>
@@ -1595,10 +1595,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M27">
-        <v>221.0662281733447</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>221.290390307534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1630,7 +1630,7 @@
         <v>353.4076028029895</v>
       </c>
       <c r="J28">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>3908.717850733122</v>
@@ -1639,10 +1639,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M28">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1674,7 +1674,7 @@
         <v>359.6727074310832</v>
       </c>
       <c r="J29">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>4323.318352973185</v>
@@ -1683,10 +1683,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M29">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1718,7 +1718,7 @@
         <v>297.9251332338495</v>
       </c>
       <c r="J30">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>4311.360792538343</v>
@@ -1727,10 +1727,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M30">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1762,7 +1762,7 @@
         <v>332.5658540128069</v>
       </c>
       <c r="J31">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>4259.051025413375</v>
@@ -1771,10 +1771,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M31">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1806,7 +1806,7 @@
         <v>292.337464486835</v>
       </c>
       <c r="J32">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>3090.391003561192</v>
@@ -1815,10 +1815,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M32">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1850,7 +1850,7 @@
         <v>286.6576321691076</v>
       </c>
       <c r="J33">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>1940.944060052609</v>
@@ -1859,10 +1859,10 @@
         <v>439.0675668396024</v>
       </c>
       <c r="M33">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1894,7 +1894,7 @@
         <v>257.1040714027825</v>
       </c>
       <c r="J34">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>1957.341019831321</v>
@@ -1903,10 +1903,10 @@
         <v>64.00715542679708</v>
       </c>
       <c r="M34">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1938,7 +1938,7 @@
         <v>210.5540681980609</v>
       </c>
       <c r="J35">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>2030.297459336158</v>
@@ -1947,10 +1947,10 @@
         <v>66.39290942441895</v>
       </c>
       <c r="M35">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1982,7 +1982,7 @@
         <v>153.8707813024795</v>
       </c>
       <c r="J36">
-        <v>17.57393401786604</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>1496.362108998034</v>
@@ -1991,10 +1991,10 @@
         <v>48.93264950512351</v>
       </c>
       <c r="M36">
-        <v>95.49408344533293</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>95.59091486876848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2026,7 +2026,7 @@
         <v>204.7006723676041</v>
       </c>
       <c r="J37">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>1146.959128921468</v>
@@ -2035,10 +2035,10 @@
         <v>37.50679645971289</v>
       </c>
       <c r="M37">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2070,7 +2070,7 @@
         <v>124.3474932418631</v>
       </c>
       <c r="J38">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>418.1746382114048</v>
@@ -2079,10 +2079,10 @@
         <v>13.67476019372888</v>
       </c>
       <c r="M38">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2114,7 +2114,7 @@
         <v>114.9165363234431</v>
       </c>
       <c r="J39">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>603.8640976035111</v>
@@ -2123,10 +2123,10 @@
         <v>19.74700512601601</v>
       </c>
       <c r="M39">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2158,7 +2158,7 @@
         <v>159.018486726529</v>
       </c>
       <c r="J40">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>682.4126481963939</v>
@@ -2167,10 +2167,10 @@
         <v>22.31562716755559</v>
       </c>
       <c r="M40">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2202,7 +2202,7 @@
         <v>196.7080053337395</v>
       </c>
       <c r="J41">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>871.9972518936631</v>
@@ -2211,10 +2211,10 @@
         <v>28.51524750577574</v>
       </c>
       <c r="M41">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2246,7 +2246,7 @@
         <v>137.1615932049179</v>
       </c>
       <c r="J42">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>551.9847734716216</v>
@@ -2255,10 +2255,10 @@
         <v>18.05049545830711</v>
       </c>
       <c r="M42">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2290,7 +2290,7 @@
         <v>125.4561469975915</v>
       </c>
       <c r="J43">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>325.3882736669556</v>
@@ -2299,10 +2299,10 @@
         <v>10.64054633078341</v>
       </c>
       <c r="M43">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2334,7 +2334,7 @@
         <v>131.8201424643333</v>
       </c>
       <c r="J44">
-        <v>286.5117192827286</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>453.1802322324183</v>
@@ -2343,10 +2343,10 @@
         <v>14.81948074809781</v>
       </c>
       <c r="M44">
-        <v>1556.861087644676</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>1558.439751680907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2378,7 +2378,7 @@
         <v>148.117621764258</v>
       </c>
       <c r="J45">
-        <v>359.0047721154079</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>1433.60238978237</v>
@@ -2387,10 +2387,10 @@
         <v>46.88033922210226</v>
       </c>
       <c r="M45">
-        <v>1950.777306367989</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>1952.755403194161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2422,7 +2422,7 @@
         <v>224.2615493429161</v>
       </c>
       <c r="J46">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>3390.650525987299</v>
@@ -2431,10 +2431,10 @@
         <v>110.8779170394759</v>
       </c>
       <c r="M46">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2466,7 +2466,7 @@
         <v>231.0278354321856</v>
       </c>
       <c r="J47">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>2045.972150363772</v>
@@ -2475,10 +2475,10 @@
         <v>66.905488670808</v>
       </c>
       <c r="M47">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2510,7 +2510,7 @@
         <v>221.3607514092385</v>
       </c>
       <c r="J48">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>2298.219039951747</v>
@@ -2519,10 +2519,10 @@
         <v>75.1542331175856</v>
       </c>
       <c r="M48">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2554,7 +2554,7 @@
         <v>410.8806709541687</v>
       </c>
       <c r="J49">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>4530.875775542471</v>
@@ -2563,10 +2563,10 @@
         <v>148.1645084052083</v>
       </c>
       <c r="M49">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2598,7 +2598,7 @@
         <v>1070.624510090445</v>
       </c>
       <c r="J50">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>11052.64523744454</v>
@@ -2607,10 +2607,10 @@
         <v>361.43338050072</v>
       </c>
       <c r="M50">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2642,7 +2642,7 @@
         <v>1144.463002947694</v>
       </c>
       <c r="J51">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>20193.50345588458</v>
@@ -2651,10 +2651,10 @@
         <v>660.3492703707581</v>
       </c>
       <c r="M51">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2686,7 +2686,7 @@
         <v>12474.29220510968</v>
       </c>
       <c r="J52">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>17375.88928398802</v>
@@ -2695,10 +2695,10 @@
         <v>568.210258105603</v>
       </c>
       <c r="M52">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2730,7 +2730,7 @@
         <v>4567.249837524831</v>
       </c>
       <c r="J53">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>21161.70836455327</v>
@@ -2739,10 +2739,10 @@
         <v>692.0106116731977</v>
       </c>
       <c r="M53">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2774,7 +2774,7 @@
         <v>864.5384208011947</v>
       </c>
       <c r="J54">
-        <v>2457.905391132818</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>4508.263428842786</v>
@@ -2783,10 +2783,10 @@
         <v>147.425060360587</v>
       </c>
       <c r="M54">
-        <v>13355.88390641243</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>13369.42683182977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2818,7 +2818,7 @@
         <v>707.5725306263922</v>
       </c>
       <c r="J55">
-        <v>2694.669882739461</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>19401.20501336095</v>
@@ -2827,10 +2827,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M55">
-        <v>14642.42612828439</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>14657.27361321117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2862,7 +2862,7 @@
         <v>707.5725306263922</v>
       </c>
       <c r="J56">
-        <v>2617.089418468929</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>8511.736927888587</v>
@@ -2871,10 +2871,10 @@
         <v>379.9193170690515</v>
       </c>
       <c r="M56">
-        <v>14220.86568989613</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>14235.28571067184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2906,7 +2906,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J57">
-        <v>2625.414828876468</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>10889.07592859887</v>
@@ -2915,10 +2915,10 @@
         <v>356.084488269748</v>
       </c>
       <c r="M57">
-        <v>14266.10470327617</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>14280.57059661175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2950,7 +2950,7 @@
         <v>961.992694320924</v>
       </c>
       <c r="J58">
-        <v>776.1820857890837</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>5781.540774653328</v>
@@ -2959,10 +2959,10 @@
         <v>189.0625983005717</v>
       </c>
       <c r="M58">
-        <v>4217.655352168871</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>4221.932073370608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2994,7 +2994,7 @@
         <v>815.398954584905</v>
       </c>
       <c r="J59">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>13374.20204710832</v>
@@ -3003,10 +3003,10 @@
         <v>437.3507837752369</v>
       </c>
       <c r="M59">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3038,7 +3038,7 @@
         <v>681.3696465824407</v>
       </c>
       <c r="J60">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>8312.045045666584</v>
@@ -3047,10 +3047,10 @@
         <v>271.8128081729819</v>
       </c>
       <c r="M60">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3082,7 +3082,7 @@
         <v>616.6165995385843</v>
       </c>
       <c r="J61">
-        <v>254.0742233774384</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>10129.46806464933</v>
@@ -3091,10 +3091,10 @@
         <v>331.2444945647034</v>
       </c>
       <c r="M61">
-        <v>1380.600670507092</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>1382.000605699913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3126,7 +3126,7 @@
         <v>745.2985753747921</v>
       </c>
       <c r="J62">
-        <v>541.5525889307767</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>10386.55490642707</v>
@@ -3135,10 +3135,10 @@
         <v>339.6515106508787</v>
       </c>
       <c r="M62">
-        <v>2942.714366903677</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3170,7 +3170,7 @@
         <v>828.8805226228907</v>
       </c>
       <c r="J63">
-        <v>251.8961418387144</v>
+        <v>0</v>
       </c>
       <c r="K63">
         <v>12747.05917278255</v>
@@ -3179,10 +3179,10 @@
         <v>416.8425376264707</v>
       </c>
       <c r="M63">
-        <v>1368.765306837342</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3214,7 +3214,7 @@
         <v>1322.628010938939</v>
       </c>
       <c r="J64">
-        <v>260.105301362041</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>14018.29170060989</v>
@@ -3223,10 +3223,10 @@
         <v>458.4132078202917</v>
       </c>
       <c r="M64">
-        <v>1413.372630601027</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3258,7 +3258,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J65">
-        <v>624.0346565630024</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>17393.4738659147</v>
@@ -3267,10 +3267,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M65">
-        <v>3390.909372143135</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3302,7 +3302,7 @@
         <v>1607.449054541768</v>
       </c>
       <c r="J66">
-        <v>808.5082147566989</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>13035.26646359222</v>
@@ -3311,10 +3311,10 @@
         <v>462.1886287669963</v>
       </c>
       <c r="M66">
-        <v>4393.310618312455</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3346,7 +3346,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J67">
-        <v>126.6037960264464</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>16295.46263134881</v>
@@ -3355,10 +3355,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M67">
-        <v>687.9457638770302</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3390,7 +3390,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J68">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>14633.55782390998</v>
@@ -3399,10 +3399,10 @@
         <v>478.5483266640427</v>
       </c>
       <c r="M68">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>957.2719176644026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3434,7 +3434,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J69">
-        <v>13.97955047296978</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>18980.30864328551</v>
@@ -3443,10 +3443,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M69">
-        <v>75.96275017516655</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>76.03977674018668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3478,7 +3478,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J70">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>18005.18256614813</v>
@@ -3487,10 +3487,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M70">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3522,7 +3522,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J71">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>22708.26048573244</v>
@@ -3531,10 +3531,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M71">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3566,7 +3566,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J72">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <v>22708.26048573244</v>
@@ -3575,10 +3575,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M72">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3610,7 +3610,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J73">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K73">
         <v>22708.26048573244</v>
@@ -3619,10 +3619,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M73">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3654,7 +3654,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J74">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>22708.26048573244</v>
@@ -3663,10 +3663,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M74">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3698,7 +3698,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J75">
-        <v>219.8756280957376</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>22708.26048573244</v>
@@ -3707,10 +3707,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M75">
-        <v>1194.770707322761</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>1195.982210110108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3742,7 +3742,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J76">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>22708.26048573244</v>
@@ -3751,10 +3751,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M76">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3786,7 +3786,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J77">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>22708.26048573244</v>
@@ -3795,10 +3795,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M77">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3830,7 +3830,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J78">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>22708.26048573244</v>
@@ -3839,10 +3839,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M78">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3874,7 +3874,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J79">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>22708.26048573244</v>
@@ -3883,10 +3883,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M79">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3918,7 +3918,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J80">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>22708.26048573244</v>
@@ -3927,10 +3927,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M80">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3962,7 +3962,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J81">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>22708.26048573244</v>
@@ -3971,10 +3971,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M81">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4006,7 +4006,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J82">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>7209.583487584191</v>
@@ -4015,10 +4015,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M82">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4050,7 +4050,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J83">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>7209.583487584191</v>
@@ -4059,10 +4059,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M83">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4094,7 +4094,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J84">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>7209.583487584191</v>
@@ -4103,10 +4103,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M84">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4138,7 +4138,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J85">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>7209.583487584191</v>
@@ -4147,10 +4147,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M85">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4182,7 +4182,7 @@
         <v>647.6059621867954</v>
       </c>
       <c r="J86">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>7209.583487584191</v>
@@ -4191,10 +4191,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M86">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4226,7 +4226,7 @@
         <v>460.234184885364</v>
       </c>
       <c r="J87">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>7209.583487584191</v>
@@ -4235,10 +4235,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M87">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4270,7 +4270,7 @@
         <v>411.0462781306272</v>
       </c>
       <c r="J88">
-        <v>17.57393401786604</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>7209.583487584191</v>
@@ -4279,10 +4279,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M88">
-        <v>95.49408344533293</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>95.59091486876848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4314,7 +4314,7 @@
         <v>499.4747956150599</v>
       </c>
       <c r="J89">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>7209.583487584191</v>
@@ -4323,10 +4323,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M89">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4358,7 +4358,7 @@
         <v>412.4875414239088</v>
       </c>
       <c r="J90">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>7209.583487584191</v>
@@ -4367,10 +4367,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M90">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4402,7 +4402,7 @@
         <v>330.575849105388</v>
       </c>
       <c r="J91">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>7209.583487584191</v>
@@ -4411,10 +4411,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M91">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4446,7 +4446,7 @@
         <v>284.0465100841335</v>
       </c>
       <c r="J92">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>7209.583487584191</v>
@@ -4455,10 +4455,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M92">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4490,7 +4490,7 @@
         <v>349.2355219740156</v>
       </c>
       <c r="J93">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>7209.583487584191</v>
@@ -4499,10 +4499,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M93">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4534,7 +4534,7 @@
         <v>375.684685064124</v>
       </c>
       <c r="J94">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>7209.583487584191</v>
@@ -4543,10 +4543,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M94">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4578,7 +4578,7 @@
         <v>327.6065070083608</v>
       </c>
       <c r="J95">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>7209.583487584191</v>
@@ -4587,10 +4587,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M95">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4622,7 +4622,7 @@
         <v>268.8116461935178</v>
       </c>
       <c r="J96">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K96">
         <v>7209.583487584192</v>
@@ -4631,10 +4631,10 @@
         <v>30.31014173984747</v>
       </c>
       <c r="M96">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4666,7 +4666,7 @@
         <v>120.5450348435005</v>
       </c>
       <c r="J97">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>1078.983222840073</v>
@@ -4675,10 +4675,10 @@
         <v>35.28391125894997</v>
       </c>
       <c r="M97">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4710,7 +4710,7 @@
         <v>824.0618214236111</v>
       </c>
       <c r="J98">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>2299.719950964571</v>
@@ -4719,10 +4719,10 @@
         <v>75.20331452113575</v>
       </c>
       <c r="M98">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4754,7 +4754,7 @@
         <v>187.403861294429</v>
       </c>
       <c r="J99">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>1017.389383617466</v>
@@ -4763,10 +4763,10 @@
         <v>33.26972650498499</v>
       </c>
       <c r="M99">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4798,7 +4798,7 @@
         <v>123.8089834879933</v>
       </c>
       <c r="J100">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>1232.960818095277</v>
@@ -4807,10 +4807,10 @@
         <v>40.31914414473174</v>
       </c>
       <c r="M100">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4842,7 +4842,7 @@
         <v>129.9426880316405</v>
       </c>
       <c r="J101">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K101">
         <v>2116.560282080683</v>
@@ -4851,10 +4851,10 @@
         <v>69.21379645791038</v>
       </c>
       <c r="M101">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N101">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4886,7 +4886,7 @@
         <v>202.1599816816892</v>
       </c>
       <c r="J102">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K102">
         <v>4369.944097321921</v>
@@ -4895,10 +4895,10 @@
         <v>142.9018695310453</v>
       </c>
       <c r="M102">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4930,7 +4930,7 @@
         <v>796.1189911849916</v>
       </c>
       <c r="J103">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K103">
         <v>7983.921787376707</v>
@@ -4939,10 +4939,10 @@
         <v>261.082824905009</v>
       </c>
       <c r="M103">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4974,7 +4974,7 @@
         <v>356.7431763354397</v>
       </c>
       <c r="J104">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <v>6869.88814340823</v>
@@ -4983,10 +4983,10 @@
         <v>224.6527271970907</v>
       </c>
       <c r="M104">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5018,7 +5018,7 @@
         <v>457.3478837113893</v>
       </c>
       <c r="J105">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>8366.778940723645</v>
@@ -5027,10 +5027,10 @@
         <v>273.6026653785154</v>
       </c>
       <c r="M105">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N105">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5062,7 +5062,7 @@
         <v>661.8661357528546</v>
       </c>
       <c r="J106">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K106">
         <v>9616.188719240103</v>
@@ -5071,10 +5071,10 @@
         <v>115.3773158557763</v>
       </c>
       <c r="M106">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5106,7 +5106,7 @@
         <v>936.920183300685</v>
       </c>
       <c r="J107">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K107">
         <v>5230.913979390301</v>
@@ -5115,10 +5115,10 @@
         <v>62.76174813488927</v>
       </c>
       <c r="M107">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5150,7 +5150,7 @@
         <v>1634.814294628783</v>
       </c>
       <c r="J108">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K108">
         <v>7087.819768323809</v>
@@ -5159,10 +5159,10 @@
         <v>85.04134475881357</v>
       </c>
       <c r="M108">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5194,7 +5194,7 @@
         <v>985.0428876265914</v>
       </c>
       <c r="J109">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K109">
         <v>7160.464036074677</v>
@@ -5203,10 +5203,10 @@
         <v>85.91294793447024</v>
       </c>
       <c r="M109">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5238,7 +5238,7 @@
         <v>2119.641494098187</v>
       </c>
       <c r="J110">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>8075.708881859456</v>
@@ -5247,10 +5247,10 @@
         <v>96.89427294176755</v>
       </c>
       <c r="M110">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N110">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5282,7 +5282,7 @@
         <v>2326.525012201629</v>
       </c>
       <c r="J111">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>22482.93494079595</v>
@@ -5291,10 +5291,10 @@
         <v>269.7555925497759</v>
       </c>
       <c r="M111">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N111">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5326,7 +5326,7 @@
         <v>1944.110767056193</v>
       </c>
       <c r="J112">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K112">
         <v>13972.94055641471</v>
@@ -5335,10 +5335,10 @@
         <v>167.6506590168964</v>
       </c>
       <c r="M112">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5370,7 +5370,7 @@
         <v>1759.403999900679</v>
       </c>
       <c r="J113">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>17028.21341257364</v>
@@ -5379,10 +5379,10 @@
         <v>204.308548295351</v>
       </c>
       <c r="M113">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N113">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5414,7 +5414,7 @@
         <v>1819.832740751883</v>
       </c>
       <c r="J114">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>12599.26297800246</v>
@@ -5423,10 +5423,10 @@
         <v>151.1689492173207</v>
       </c>
       <c r="M114">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5458,7 +5458,7 @@
         <v>2271.030307888149</v>
       </c>
       <c r="J115">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>13433.23375735766</v>
@@ -5467,10 +5467,10 @@
         <v>161.1751286750545</v>
       </c>
       <c r="M115">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N115">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5502,7 +5502,7 @@
         <v>2653.365312618098</v>
       </c>
       <c r="J116">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>14772.83781140935</v>
@@ -5511,10 +5511,10 @@
         <v>177.2480162377494</v>
       </c>
       <c r="M116">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5546,7 +5546,7 @@
         <v>2849.30044664827</v>
       </c>
       <c r="J117">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>18329.73290907608</v>
@@ -5555,10 +5555,10 @@
         <v>219.9244882924479</v>
       </c>
       <c r="M117">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N117">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5590,7 +5590,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J118">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>14638.52897281809</v>
@@ -5599,10 +5599,10 @@
         <v>175.6365468973691</v>
       </c>
       <c r="M118">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N118">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5634,7 +5634,7 @@
         <v>3703.804948940712</v>
       </c>
       <c r="J119">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K119">
         <v>25621.66969966921</v>
@@ -5643,10 +5643,10 @@
         <v>307.4148775570944</v>
       </c>
       <c r="M119">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5678,7 +5678,7 @@
         <v>3188.581492296366</v>
       </c>
       <c r="J120">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K120">
         <v>23008.42080400218</v>
@@ -5687,10 +5687,10 @@
         <v>276.0604967261658</v>
       </c>
       <c r="M120">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5722,7 +5722,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J121">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K121">
         <v>24714.16020400021</v>
@@ -5731,10 +5731,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M121">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5766,7 +5766,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J122">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>24714.16020400021</v>
@@ -5775,10 +5775,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M122">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5810,7 +5810,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J123">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K123">
         <v>24714.16020400021</v>
@@ -5819,10 +5819,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M123">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5854,7 +5854,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J124">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K124">
         <v>24714.16020400021</v>
@@ -5863,10 +5863,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M124">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N124">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5898,7 +5898,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J125">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>24714.16020400021</v>
@@ -5907,10 +5907,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M125">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5942,7 +5942,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J126">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K126">
         <v>24714.16020400021</v>
@@ -5951,10 +5951,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M126">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N126">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5986,7 +5986,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J127">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K127">
         <v>24714.16020400021</v>
@@ -5995,10 +5995,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M127">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N127">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6030,7 +6030,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J128">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K128">
         <v>24714.16020400021</v>
@@ -6039,10 +6039,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M128">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N128">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6074,7 +6074,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J129">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K129">
         <v>24714.16020400021</v>
@@ -6083,10 +6083,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M129">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N129">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6118,7 +6118,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J130">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K130">
         <v>24714.16020400021</v>
@@ -6127,10 +6127,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M130">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6162,7 +6162,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J131">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K131">
         <v>24714.16020400021</v>
@@ -6171,10 +6171,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M131">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N131">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6206,7 +6206,7 @@
         <v>4020.022483399976</v>
       </c>
       <c r="J132">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K132">
         <v>24714.16020400021</v>
@@ -6215,10 +6215,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M132">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N132">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6250,7 +6250,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J133">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K133">
         <v>24714.16020400021</v>
@@ -6259,10 +6259,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M133">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N133">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6294,7 +6294,7 @@
         <v>4020.022483399976</v>
       </c>
       <c r="J134">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>24714.16020400021</v>
@@ -6303,10 +6303,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M134">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N134">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6338,7 +6338,7 @@
         <v>4020.022483399976</v>
       </c>
       <c r="J135">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K135">
         <v>24714.16020400021</v>
@@ -6347,10 +6347,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M135">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N135">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6382,7 +6382,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J136">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K136">
         <v>24714.16020400021</v>
@@ -6391,10 +6391,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M136">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N136">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6426,7 +6426,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J137">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K137">
         <v>24714.16020400021</v>
@@ -6435,10 +6435,10 @@
         <v>184.4838555094719</v>
       </c>
       <c r="M137">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N137">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6470,7 +6470,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J138">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K138">
         <v>24714.16020400021</v>
@@ -6479,10 +6479,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M138">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N138">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6514,7 +6514,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J139">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K139">
         <v>23408.36459964728</v>
@@ -6523,10 +6523,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M139">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N139">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6558,7 +6558,7 @@
         <v>1424.727788514636</v>
       </c>
       <c r="J140">
-        <v>29.36487282211446</v>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>3024.987529809915</v>
@@ -6567,10 +6567,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M140">
-        <v>25.04845816614848</v>
+        <v>0</v>
       </c>
       <c r="N140">
-        <v>43.34402425589429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6602,7 +6602,7 @@
         <v>915.9531693625411</v>
       </c>
       <c r="J141">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K141">
         <v>2144.918229625418</v>
@@ -6611,10 +6611,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M141">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N141">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6646,7 +6646,7 @@
         <v>556.3997840854134</v>
       </c>
       <c r="J142">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K142">
         <v>782.0218222385405</v>
@@ -6655,10 +6655,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M142">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N142">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -6690,7 +6690,7 @@
         <v>514.1989801436492</v>
       </c>
       <c r="J143">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K143">
         <v>1129.280059211597</v>
@@ -6699,10 +6699,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M143">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N143">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -6734,7 +6734,7 @@
         <v>711.5366695279613</v>
       </c>
       <c r="J144">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K144">
         <v>1276.189214183513</v>
@@ -6743,10 +6743,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M144">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N144">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -6778,7 +6778,7 @@
         <v>279.3964223165766</v>
       </c>
       <c r="J145">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K145">
         <v>3508.965276836125</v>
@@ -6787,10 +6787,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M145">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N145">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -6822,7 +6822,7 @@
         <v>596.3871390878777</v>
       </c>
       <c r="J146">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K146">
         <v>1320.650909347932</v>
@@ -6831,10 +6831,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M146">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N146">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -6866,7 +6866,7 @@
         <v>1326.172876302742</v>
       </c>
       <c r="J147">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K147">
         <v>1069.215850098009</v>
@@ -6875,10 +6875,10 @@
         <v>12.82870568127836</v>
       </c>
       <c r="M147">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N147">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -6910,7 +6910,7 @@
         <v>739.3104351565305</v>
       </c>
       <c r="J148">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K148">
         <v>1454.437098160058</v>
@@ -6919,10 +6919,10 @@
         <v>17.45068169585928</v>
       </c>
       <c r="M148">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N148">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -6954,7 +6954,7 @@
         <v>638.1943822993846</v>
       </c>
       <c r="J149">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K149">
         <v>1082.334764709125</v>
@@ -6963,10 +6963,10 @@
         <v>12.98610953419394</v>
       </c>
       <c r="M149">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N149">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -6998,7 +6998,7 @@
         <v>715.4062431509622</v>
       </c>
       <c r="J150">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K150">
         <v>1320.071537887342</v>
@@ -7007,10 +7007,10 @@
         <v>15.83853179527491</v>
       </c>
       <c r="M150">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N150">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7042,7 +7042,7 @@
         <v>729.1412485022279</v>
       </c>
       <c r="J151">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>2160.480228087832</v>
@@ -7051,10 +7051,10 @@
         <v>25.92195483617209</v>
       </c>
       <c r="M151">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N151">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7086,7 +7086,7 @@
         <v>751.3681850466322</v>
       </c>
       <c r="J152">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K152">
         <v>1694.68988306573</v>
@@ -7095,10 +7095,10 @@
         <v>20.3332916631356</v>
       </c>
       <c r="M152">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N152">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7130,7 +7130,7 @@
         <v>771.8254189784697</v>
       </c>
       <c r="J153">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K153">
         <v>1622.568265093996</v>
@@ -7139,10 +7139,10 @@
         <v>19.46795936364513</v>
       </c>
       <c r="M153">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N153">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7174,7 +7174,7 @@
         <v>888.9480357642062</v>
       </c>
       <c r="J154">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K154">
         <v>1410.5875920005</v>
@@ -7183,10 +7183,10 @@
         <v>16.92456490780492</v>
       </c>
       <c r="M154">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N154">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7218,7 +7218,7 @@
         <v>698.887257868882</v>
       </c>
       <c r="J155">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K155">
         <v>1732.80685300439</v>
@@ -7227,10 +7227,10 @@
         <v>20.79062812027883</v>
       </c>
       <c r="M155">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N155">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7262,7 +7262,7 @@
         <v>659.3410078459681</v>
       </c>
       <c r="J156">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K156">
         <v>1410.587186845632</v>
@@ -7271,10 +7271,10 @@
         <v>16.92456004666061</v>
       </c>
       <c r="M156">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N156">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7306,7 +7306,7 @@
         <v>621.7123758778656</v>
       </c>
       <c r="J157">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K157">
         <v>1229.932682955869</v>
@@ -7315,10 +7315,10 @@
         <v>14.75702440810205</v>
       </c>
       <c r="M157">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N157">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -7350,7 +7350,7 @@
         <v>277.150069319166</v>
       </c>
       <c r="J158">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K158">
         <v>2780.636191792164</v>
@@ -7359,10 +7359,10 @@
         <v>90.92979256560827</v>
       </c>
       <c r="M158">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N158">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7394,7 +7394,7 @@
         <v>246.6780374694331</v>
       </c>
       <c r="J159">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K159">
         <v>11966.57496807478</v>
@@ -7403,10 +7403,10 @@
         <v>391.3198651372407</v>
       </c>
       <c r="M159">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N159">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7438,7 +7438,7 @@
         <v>1566.857153403025</v>
       </c>
       <c r="J160">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K160">
         <v>5249.95248914894</v>
@@ -7447,10 +7447,10 @@
         <v>171.6790899243582</v>
       </c>
       <c r="M160">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N160">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7482,7 +7482,7 @@
         <v>302.8369764893259</v>
       </c>
       <c r="J161">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K161">
         <v>6716.269814288978</v>
@@ -7491,10 +7491,10 @@
         <v>219.629242700154</v>
       </c>
       <c r="M161">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N161">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -7526,7 +7526,7 @@
         <v>437.1855376250824</v>
       </c>
       <c r="J162">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K162">
         <v>2386.25755188197</v>
@@ -7535,10 +7535,10 @@
         <v>78.03318709625782</v>
       </c>
       <c r="M162">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N162">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -7570,7 +7570,7 @@
         <v>426.1809659214242</v>
       </c>
       <c r="J163">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K163">
         <v>2691.80619325999</v>
@@ -7579,10 +7579,10 @@
         <v>88.02495612422976</v>
       </c>
       <c r="M163">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N163">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -7614,7 +7614,7 @@
         <v>356.1256139210677</v>
       </c>
       <c r="J164">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K164">
         <v>3836.410389666502</v>
@@ -7623,10 +7623,10 @@
         <v>125.4547437592273</v>
       </c>
       <c r="M164">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N164">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -7658,7 +7658,7 @@
         <v>322.2834492464552</v>
       </c>
       <c r="J165">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K165">
         <v>4506.203514983715</v>
@@ -7667,10 +7667,10 @@
         <v>147.3576989630545</v>
       </c>
       <c r="M165">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N165">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -7702,7 +7702,7 @@
         <v>457.5830704812681</v>
       </c>
       <c r="J166">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K166">
         <v>7457.695350846635</v>
@@ -7711,10 +7711,10 @@
         <v>243.87465475407</v>
       </c>
       <c r="M166">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N166">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -7746,7 +7746,7 @@
         <v>550.4274130781789</v>
       </c>
       <c r="J167">
-        <v>6.27640500638073</v>
+        <v>0</v>
       </c>
       <c r="K167">
         <v>8773.404131067573</v>
@@ -7755,10 +7755,10 @@
         <v>286.8997462116948</v>
       </c>
       <c r="M167">
-        <v>34.10502980190461</v>
+        <v>0</v>
       </c>
       <c r="N167">
-        <v>34.1396124531316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -7790,7 +7790,7 @@
         <v>878.3056583777361</v>
       </c>
       <c r="J168">
-        <v>1.255281001276146</v>
+        <v>0</v>
       </c>
       <c r="K168">
         <v>9648.344350145799</v>
@@ -7799,10 +7799,10 @@
         <v>315.5112319080003</v>
       </c>
       <c r="M168">
-        <v>6.821005960380923</v>
+        <v>0</v>
       </c>
       <c r="N168">
-        <v>6.82792249062632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -7834,7 +7834,7 @@
         <v>1152.345728035005</v>
       </c>
       <c r="J169">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K169">
         <v>11971.49152801222</v>
@@ -7843,10 +7843,10 @@
         <v>391.480641932338</v>
       </c>
       <c r="M169">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N169">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -7878,7 +7878,7 @@
         <v>1099.153743052355</v>
       </c>
       <c r="J170">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K170">
         <v>9112.667511729687</v>
@@ -7887,10 +7887,10 @@
         <v>297.9940234565112</v>
       </c>
       <c r="M170">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N170">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -8142,7 +8142,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J176">
-        <v>7.531686007656877</v>
+        <v>0</v>
       </c>
       <c r="K176">
         <v>22708.26048573244</v>
@@ -8151,10 +8151,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M176">
-        <v>40.92603576228554</v>
+        <v>0</v>
       </c>
       <c r="N176">
-        <v>40.96753494375792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -8186,7 +8186,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J177">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K177">
         <v>22708.26048573244</v>
@@ -8195,10 +8195,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M177">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N177">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -8230,7 +8230,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J178">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K178">
         <v>22708.26048573244</v>
@@ -8239,10 +8239,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M178">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N178">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -8274,7 +8274,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J179">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K179">
         <v>22708.26048573244</v>
@@ -8283,10 +8283,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M179">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N179">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -8318,7 +8318,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J180">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K180">
         <v>22708.26048573244</v>
@@ -8327,10 +8327,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M180">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N180">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -8362,7 +8362,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J181">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K181">
         <v>22708.26048573244</v>
@@ -8371,10 +8371,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M181">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N181">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -8406,7 +8406,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J182">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K182">
         <v>22708.26048573244</v>
@@ -8415,10 +8415,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M182">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N182">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -8450,7 +8450,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J183">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K183">
         <v>22708.26048573244</v>
@@ -8459,10 +8459,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M183">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N183">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -8494,7 +8494,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J184">
-        <v>6.27640500638073</v>
+        <v>0</v>
       </c>
       <c r="K184">
         <v>22708.26048573244</v>
@@ -8503,10 +8503,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M184">
-        <v>34.10502980190461</v>
+        <v>0</v>
       </c>
       <c r="N184">
-        <v>34.1396124531316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -8538,7 +8538,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J185">
-        <v>8.786967008933022</v>
+        <v>0</v>
       </c>
       <c r="K185">
         <v>16962.4855706089</v>
@@ -8547,10 +8547,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M185">
-        <v>47.74704172266647</v>
+        <v>0</v>
       </c>
       <c r="N185">
-        <v>47.79545743438424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -8846,7 +8846,7 @@
         <v>293.9383235764356</v>
       </c>
       <c r="J192">
-        <v>13.38966401361223</v>
+        <v>0</v>
       </c>
       <c r="K192">
         <v>2503.43556372433</v>
@@ -8855,10 +8855,10 @@
         <v>81.8650340460772</v>
       </c>
       <c r="M192">
-        <v>72.75739691072985</v>
+        <v>0</v>
       </c>
       <c r="N192">
-        <v>72.83117323334741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -8890,7 +8890,7 @@
         <v>338.53321128736</v>
       </c>
       <c r="J193">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K193">
         <v>991.3382197237592</v>
@@ -8899,10 +8899,10 @@
         <v>32.41782544150185</v>
       </c>
       <c r="M193">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N193">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -8934,7 +8934,7 @@
         <v>279.5680374455708</v>
       </c>
       <c r="J194">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K194">
         <v>957.6649703969434</v>
@@ -8943,10 +8943,10 @@
         <v>31.31667399086065</v>
       </c>
       <c r="M194">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N194">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -8978,7 +8978,7 @@
         <v>224.0508706876429</v>
       </c>
       <c r="J195">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K195">
         <v>945.4648484593509</v>
@@ -8987,10 +8987,10 @@
         <v>30.91771688876474</v>
       </c>
       <c r="M195">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N195">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9022,7 +9022,7 @@
         <v>192.5156618979078</v>
       </c>
       <c r="J196">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K196">
         <v>903.7591434035166</v>
@@ -9031,10 +9031,10 @@
         <v>29.55389550115442</v>
       </c>
       <c r="M196">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N196">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9066,7 +9066,7 @@
         <v>259.4820016253129</v>
       </c>
       <c r="J197">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K197">
         <v>1720.125915294542</v>
@@ -9075,10 +9075,10 @@
         <v>56.24996650987651</v>
       </c>
       <c r="M197">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N197">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -9110,7 +9110,7 @@
         <v>279.1317206753881</v>
       </c>
       <c r="J198">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K198">
         <v>647.3989208764161</v>
@@ -9119,10 +9119,10 @@
         <v>21.17064064556748</v>
       </c>
       <c r="M198">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N198">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -9154,7 +9154,7 @@
         <v>243.4084231916084</v>
       </c>
       <c r="J199">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K199">
         <v>524.1467792885591</v>
@@ -9163,10 +9163,10 @@
         <v>17.14016312357726</v>
       </c>
       <c r="M199">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N199">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9198,7 +9198,7 @@
         <v>199.7248300006858</v>
       </c>
       <c r="J200">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K200">
         <v>712.9862453414607</v>
@@ -9207,10 +9207,10 @@
         <v>23.31541665982772</v>
       </c>
       <c r="M200">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N200">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -9242,7 +9242,7 @@
         <v>185.7560657583308</v>
       </c>
       <c r="J201">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K201">
         <v>545.1199526925823</v>
@@ -9251,10 +9251,10 @@
         <v>17.82600843937213</v>
       </c>
       <c r="M201">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N201">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -9286,7 +9286,7 @@
         <v>214.926879493443</v>
       </c>
       <c r="J202">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K202">
         <v>683.8914128002712</v>
@@ -9295,10 +9295,10 @@
         <v>22.36398435972651</v>
       </c>
       <c r="M202">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N202">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -9330,7 +9330,7 @@
         <v>242.2071713243333</v>
       </c>
       <c r="J203">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K203">
         <v>1119.280800981893</v>
@@ -9339,10 +9339,10 @@
         <v>36.60168538278112</v>
       </c>
       <c r="M203">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N203">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -9374,7 +9374,7 @@
         <v>257.1512968529447</v>
       </c>
       <c r="J204">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K204">
         <v>877.9648369637911</v>
@@ -9383,10 +9383,10 @@
         <v>28.71039395252994</v>
       </c>
       <c r="M204">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N204">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -9418,7 +9418,7 @@
         <v>184.4565045428373</v>
       </c>
       <c r="J205">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K205">
         <v>1231.880396038626</v>
@@ -9427,10 +9427,10 @@
         <v>40.28381318206049</v>
       </c>
       <c r="M205">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N205">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -9462,7 +9462,7 @@
         <v>117.1228855088861</v>
       </c>
       <c r="J206">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K206">
         <v>2056.719417205817</v>
@@ -9471,10 +9471,10 @@
         <v>67.25693584950724</v>
       </c>
       <c r="M206">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N206">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -9506,7 +9506,7 @@
         <v>461.2431606534208</v>
       </c>
       <c r="J207">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K207">
         <v>1898.621934998041</v>
@@ -9515,10 +9515,10 @@
         <v>62.08697823163111</v>
       </c>
       <c r="M207">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N207">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -9550,7 +9550,7 @@
         <v>206.6810448366995</v>
       </c>
       <c r="J208">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K208">
         <v>1274.617126532818</v>
@@ -9559,10 +9559,10 @@
         <v>41.68135020982413</v>
       </c>
       <c r="M208">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N208">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -9594,7 +9594,7 @@
         <v>264.9619193389237</v>
       </c>
       <c r="J209">
-        <v>29.28989002977675</v>
+        <v>0</v>
       </c>
       <c r="K209">
         <v>686.675388933624</v>
@@ -9603,10 +9603,10 @@
         <v>22.45502337197149</v>
       </c>
       <c r="M209">
-        <v>159.1568057422216</v>
+        <v>0</v>
       </c>
       <c r="N209">
-        <v>159.3181914479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -9638,7 +9638,7 @@
         <v>4239.588118219471</v>
       </c>
       <c r="J210">
-        <v>5.033978198076764</v>
+        <v>0</v>
       </c>
       <c r="K210">
         <v>8037.722094068984</v>
@@ -9647,10 +9647,10 @@
         <v>96.43849844095328</v>
       </c>
       <c r="M210">
-        <v>4.294021399911168</v>
+        <v>0</v>
       </c>
       <c r="N210">
-        <v>7.430404158153306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -9726,7 +9726,7 @@
         <v>2004.805320881815</v>
       </c>
       <c r="J212">
-        <v>15.10193459423029</v>
+        <v>0</v>
       </c>
       <c r="K212">
         <v>21786.16746231843</v>
@@ -9735,10 +9735,10 @@
         <v>261.3956108782966</v>
       </c>
       <c r="M212">
-        <v>12.8820641997335</v>
+        <v>0</v>
       </c>
       <c r="N212">
-        <v>22.29121247445992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -9770,7 +9770,7 @@
         <v>1575.352105536759</v>
       </c>
       <c r="J213">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K213">
         <v>13884.5535153692</v>
@@ -9779,10 +9779,10 @@
         <v>166.5901703087388</v>
       </c>
       <c r="M213">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N213">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -9814,7 +9814,7 @@
         <v>2138.169246694929</v>
       </c>
       <c r="J214">
-        <v>10.06795639615353</v>
+        <v>0</v>
       </c>
       <c r="K214">
         <v>14029.6090108056</v>
@@ -9823,10 +9823,10 @@
         <v>168.3305805900071</v>
       </c>
       <c r="M214">
-        <v>8.588042799822336</v>
+        <v>0</v>
       </c>
       <c r="N214">
-        <v>14.86080831630661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -9858,7 +9858,7 @@
         <v>2135.934668435647</v>
       </c>
       <c r="J215">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K215">
         <v>9799.306897957422</v>
@@ -9867,10 +9867,10 @@
         <v>117.5744112499766</v>
       </c>
       <c r="M215">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N215">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -9902,7 +9902,7 @@
         <v>2058.690871674292</v>
       </c>
       <c r="J216">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K216">
         <v>11557.93010869676</v>
@@ -9911,10 +9911,10 @@
         <v>138.6747901610933</v>
       </c>
       <c r="M216">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N216">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -9946,7 +9946,7 @@
         <v>1926.937683050362</v>
       </c>
       <c r="J217">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K217">
         <v>13447.61424442852</v>
@@ -9955,10 +9955,10 @@
         <v>161.3476691739338</v>
       </c>
       <c r="M217">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N217">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -9990,7 +9990,7 @@
         <v>3985.505831891192</v>
       </c>
       <c r="J218">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K218">
         <v>23279.58209218513</v>
@@ -9999,10 +9999,10 @@
         <v>279.3139542557531</v>
       </c>
       <c r="M218">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N218">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -10034,7 +10034,7 @@
         <v>2721.015776964327</v>
       </c>
       <c r="J219">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K219">
         <v>21889.51037819008</v>
@@ -10043,10 +10043,10 @@
         <v>262.6355437242612</v>
       </c>
       <c r="M219">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N219">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10078,7 +10078,7 @@
         <v>3201.690434925463</v>
       </c>
       <c r="J220">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K220">
         <v>20753.88539953996</v>
@@ -10087,10 +10087,10 @@
         <v>249.0100455481212</v>
       </c>
       <c r="M220">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N220">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -10122,7 +10122,7 @@
         <v>3139.705177124512</v>
       </c>
       <c r="J221">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K221">
         <v>20704.03886696009</v>
@@ -10131,10 +10131,10 @@
         <v>248.4119750129334</v>
       </c>
       <c r="M221">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N221">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -10166,7 +10166,7 @@
         <v>4244.471464300968</v>
       </c>
       <c r="J222">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K222">
         <v>20263.55402675641</v>
@@ -10175,10 +10175,10 @@
         <v>243.1269332961275</v>
       </c>
       <c r="M222">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N222">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -10386,7 +10386,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J227">
-        <v>10.06795639615353</v>
+        <v>0</v>
       </c>
       <c r="K227">
         <v>24714.16020400021</v>
@@ -10395,10 +10395,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M227">
-        <v>8.588042799822336</v>
+        <v>0</v>
       </c>
       <c r="N227">
-        <v>14.86080831630661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -10430,7 +10430,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J228">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K228">
         <v>24714.16020400021</v>
@@ -10439,10 +10439,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M228">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N228">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -10474,7 +10474,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J229">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K229">
         <v>24714.16020400021</v>
@@ -10483,10 +10483,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M229">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N229">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -10518,7 +10518,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J230">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K230">
         <v>24714.16020400021</v>
@@ -10527,10 +10527,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M230">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N230">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -10562,7 +10562,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J231">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K231">
         <v>24714.16020400021</v>
@@ -10571,10 +10571,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M231">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N231">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -10606,7 +10606,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J232">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K232">
         <v>24714.16020400021</v>
@@ -10615,10 +10615,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M232">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N232">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -10650,7 +10650,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J233">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K233">
         <v>24714.16020400021</v>
@@ -10659,10 +10659,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M233">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N233">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -10694,7 +10694,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J234">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K234">
         <v>24714.16020400021</v>
@@ -10703,10 +10703,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M234">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N234">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -10738,7 +10738,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J235">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K235">
         <v>24714.16020400021</v>
@@ -10747,10 +10747,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M235">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N235">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -10782,7 +10782,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J236">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K236">
         <v>24714.16020400021</v>
@@ -10791,10 +10791,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M236">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N236">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -10826,7 +10826,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J237">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K237">
         <v>24714.16020400021</v>
@@ -10835,10 +10835,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M237">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N237">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -10870,7 +10870,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J238">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K238">
         <v>24714.16020400021</v>
@@ -10879,10 +10879,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M238">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N238">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -10914,7 +10914,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J239">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K239">
         <v>24714.16020400021</v>
@@ -10923,10 +10923,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M239">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N239">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -10958,7 +10958,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J240">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K240">
         <v>24714.16020400021</v>
@@ -10967,10 +10967,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M240">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N240">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -11002,7 +11002,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J241">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K241">
         <v>24714.16020400021</v>
@@ -11011,10 +11011,10 @@
         <v>184.4838555094719</v>
       </c>
       <c r="M241">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N241">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -11046,7 +11046,7 @@
         <v>4020.022483399977</v>
       </c>
       <c r="J242">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K242">
         <v>24714.16020400021</v>
@@ -11055,10 +11055,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M242">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N242">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -11090,7 +11090,7 @@
         <v>4020.022483399976</v>
       </c>
       <c r="J243">
-        <v>17.61892369326868</v>
+        <v>0</v>
       </c>
       <c r="K243">
         <v>24714.16020400021</v>
@@ -11099,10 +11099,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M243">
-        <v>15.02907489968909</v>
+        <v>0</v>
       </c>
       <c r="N243">
-        <v>26.00641455353657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -11134,7 +11134,7 @@
         <v>3390.835250398914</v>
       </c>
       <c r="J244">
-        <v>29.36487282211446</v>
+        <v>0</v>
       </c>
       <c r="K244">
         <v>24714.16020400021</v>
@@ -11143,10 +11143,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M244">
-        <v>25.04845816614848</v>
+        <v>0</v>
       </c>
       <c r="N244">
-        <v>43.34402425589429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -11178,7 +11178,7 @@
         <v>1772.557472006932</v>
       </c>
       <c r="J245">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K245">
         <v>24714.16020400021</v>
@@ -11187,10 +11187,10 @@
         <v>184.4838555094719</v>
       </c>
       <c r="M245">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N245">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -11222,7 +11222,7 @@
         <v>1076.754800438821</v>
       </c>
       <c r="J246">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K246">
         <v>24714.16020400021</v>
@@ -11231,10 +11231,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M246">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N246">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -11266,7 +11266,7 @@
         <v>995.0929816728444</v>
       </c>
       <c r="J247">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K247">
         <v>2273.982131261736</v>
@@ -11275,10 +11275,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M247">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N247">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -11310,7 +11310,7 @@
         <v>1376.980872148701</v>
       </c>
       <c r="J248">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K248">
         <v>2569.797317390002</v>
@@ -11319,10 +11319,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M248">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N248">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -11354,7 +11354,7 @@
         <v>986.7989635113909</v>
       </c>
       <c r="J249">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K249">
         <v>2863.172317613729</v>
@@ -11363,10 +11363,10 @@
         <v>184.483855509472</v>
       </c>
       <c r="M249">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N249">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -11398,7 +11398,7 @@
         <v>948.4583049573963</v>
       </c>
       <c r="J250">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K250">
         <v>1812.411582088075</v>
@@ -11407,10 +11407,10 @@
         <v>21.74574456394068</v>
       </c>
       <c r="M250">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N250">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -11442,7 +11442,7 @@
         <v>946.4691723650382</v>
       </c>
       <c r="J251">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K251">
         <v>1068.383257577269</v>
@@ -11451,10 +11451,10 @@
         <v>12.81871603849479</v>
       </c>
       <c r="M251">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N251">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -11486,7 +11486,7 @@
         <v>1135.66176050044</v>
       </c>
       <c r="J252">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K252">
         <v>1488.009722369603</v>
@@ -11495,10 +11495,10 @@
         <v>17.85349401377706</v>
       </c>
       <c r="M252">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N252">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -11530,7 +11530,7 @@
         <v>1108.626942979105</v>
       </c>
       <c r="J253">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K253">
         <v>3797.319592923556</v>
@@ -11539,10 +11539,10 @@
         <v>45.56114224354479</v>
       </c>
       <c r="M253">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N253">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -11574,7 +11574,7 @@
         <v>1155.445703944745</v>
       </c>
       <c r="J254">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K254">
         <v>3355.505894216388</v>
@@ -11583,10 +11583,10 @@
         <v>40.26015656684377</v>
       </c>
       <c r="M254">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N254">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -11618,7 +11618,7 @@
         <v>1177.61762919016</v>
       </c>
       <c r="J255">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K255">
         <v>2162.275843187355</v>
@@ -11627,10 +11627,10 @@
         <v>25.94349905254948</v>
       </c>
       <c r="M255">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N255">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -11662,7 +11662,7 @@
         <v>1213.508944526315</v>
       </c>
       <c r="J256">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K256">
         <v>2267.182980792684</v>
@@ -11671,10 +11671,10 @@
         <v>27.20219980233799</v>
       </c>
       <c r="M256">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N256">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -11706,7 +11706,7 @@
         <v>1517.549650976296</v>
       </c>
       <c r="J257">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K257">
         <v>3871.104662071284</v>
@@ -11715,10 +11715,10 @@
         <v>46.44643302527254</v>
       </c>
       <c r="M257">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N257">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -11750,7 +11750,7 @@
         <v>1887.732851210742</v>
       </c>
       <c r="J258">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K258">
         <v>5577.670573513823</v>
@@ -11759,10 +11759,10 @@
         <v>66.92221609713036</v>
       </c>
       <c r="M258">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N258">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -11794,7 +11794,7 @@
         <v>1684.191918463109</v>
       </c>
       <c r="J259">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K259">
         <v>4521.82090328127</v>
@@ -11803,10 +11803,10 @@
         <v>54.25388101600843</v>
       </c>
       <c r="M259">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N259">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -11838,7 +11838,7 @@
         <v>1534.526309605165</v>
       </c>
       <c r="J260">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K260">
         <v>5095.285447137355</v>
@@ -11847,10 +11847,10 @@
         <v>61.13444479656208</v>
       </c>
       <c r="M260">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N260">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -11882,7 +11882,7 @@
         <v>1552.985869138364</v>
       </c>
       <c r="J261">
-        <v>58.72974564422893</v>
+        <v>0</v>
       </c>
       <c r="K261">
         <v>3705.046882824041</v>
@@ -11891,10 +11891,10 @@
         <v>44.45403235532897</v>
       </c>
       <c r="M261">
-        <v>50.09691633229697</v>
+        <v>0</v>
       </c>
       <c r="N261">
-        <v>86.68804851178859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -11926,7 +11926,7 @@
         <v>443.1142127774978</v>
       </c>
       <c r="J262">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K262">
         <v>8780.972425062035</v>
@@ -11935,10 +11935,10 @@
         <v>801.8286898612012</v>
       </c>
       <c r="M262">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N262">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -11970,7 +11970,7 @@
         <v>2996.420597418318</v>
       </c>
       <c r="J263">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K263">
         <v>5388.413159286259</v>
@@ -11979,10 +11979,10 @@
         <v>492.039384113068</v>
       </c>
       <c r="M263">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N263">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -12014,7 +12014,7 @@
         <v>1077.605060341675</v>
       </c>
       <c r="J264">
-        <v>4014.047926293083</v>
+        <v>0</v>
       </c>
       <c r="K264">
         <v>5724.577054744882</v>
@@ -12023,10 +12023,10 @@
         <v>522.7359679111115</v>
       </c>
       <c r="M264">
-        <v>5194.064501407011</v>
+        <v>0</v>
       </c>
       <c r="N264">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -12058,7 +12058,7 @@
         <v>1286.863243171287</v>
       </c>
       <c r="J265">
-        <v>4222.61985978272</v>
+        <v>0</v>
       </c>
       <c r="K265">
         <v>5089.144862162048</v>
@@ -12067,10 +12067,10 @@
         <v>464.7118974767113</v>
       </c>
       <c r="M265">
-        <v>5463.950685035315</v>
+        <v>0</v>
       </c>
       <c r="N265">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -12102,7 +12102,7 @@
         <v>1638.382132573301</v>
       </c>
       <c r="J266">
-        <v>1873.104447519819</v>
+        <v>0</v>
       </c>
       <c r="K266">
         <v>3060.336900090436</v>
@@ -12111,10 +12111,10 @@
         <v>279.4526401346794</v>
       </c>
       <c r="M266">
-        <v>2423.744184657731</v>
+        <v>0</v>
       </c>
       <c r="N266">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -12146,7 +12146,7 @@
         <v>1609.100025797076</v>
       </c>
       <c r="J267">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K267">
         <v>5065.783649167866</v>
@@ -12155,10 +12155,10 @@
         <v>462.5786837616529</v>
       </c>
       <c r="M267">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N267">
-        <v>1031.610557979318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -12190,7 +12190,7 @@
         <v>1344.579942737093</v>
       </c>
       <c r="J268">
-        <v>1463.701920787559</v>
+        <v>0</v>
       </c>
       <c r="K268">
         <v>7219.87466490087</v>
@@ -12199,10 +12199,10 @@
         <v>659.2780802951497</v>
       </c>
       <c r="M268">
-        <v>1893.988892759628</v>
+        <v>0</v>
       </c>
       <c r="N268">
-        <v>2779.541630066831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -12234,7 +12234,7 @@
         <v>1216.804745809372</v>
       </c>
       <c r="J269">
-        <v>12650.26387941792</v>
+        <v>0</v>
       </c>
       <c r="K269">
         <v>8480.300295415829</v>
@@ -12243,10 +12243,10 @@
         <v>774.3730131864972</v>
       </c>
       <c r="M269">
-        <v>16369.08371699359</v>
+        <v>0</v>
       </c>
       <c r="N269">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -12278,7 +12278,7 @@
         <v>1121.219127169708</v>
       </c>
       <c r="J270">
-        <v>14714.88617253357</v>
+        <v>0</v>
       </c>
       <c r="K270">
         <v>8582.996043755422</v>
@@ -12287,10 +12287,10 @@
         <v>783.7506075301977</v>
       </c>
       <c r="M270">
-        <v>19040.64657782589</v>
+        <v>0</v>
       </c>
       <c r="N270">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -12322,7 +12322,7 @@
         <v>1274.59522894578</v>
       </c>
       <c r="J271">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K271">
         <v>11506.35128583453</v>
@@ -12331,10 +12331,10 @@
         <v>1050.694858153853</v>
       </c>
       <c r="M271">
-        <v>11017.43392709951</v>
+        <v>0</v>
       </c>
       <c r="N271">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -12366,7 +12366,7 @@
         <v>2185.170238648892</v>
       </c>
       <c r="J272">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K272">
         <v>8862.89865121728</v>
@@ -12375,10 +12375,10 @@
         <v>809.3097290221764</v>
       </c>
       <c r="M272">
-        <v>10320.65023257113</v>
+        <v>0</v>
       </c>
       <c r="N272">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -12410,7 +12410,7 @@
         <v>2401.695106107526</v>
       </c>
       <c r="J273">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K273">
         <v>8056.126899539991</v>
@@ -12419,10 +12419,10 @@
         <v>735.6399000613075</v>
       </c>
       <c r="M273">
-        <v>16316.25849731117</v>
+        <v>0</v>
       </c>
       <c r="N273">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -12454,7 +12454,7 @@
         <v>2073.796930050949</v>
       </c>
       <c r="J274">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K274">
         <v>8473.821068391251</v>
@@ -12463,10 +12463,10 @@
         <v>773.7813668556645</v>
       </c>
       <c r="M274">
-        <v>21063.87711576728</v>
+        <v>0</v>
       </c>
       <c r="N274">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -12498,7 +12498,7 @@
         <v>1906.088868223069</v>
       </c>
       <c r="J275">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K275">
         <v>12462.99629671648</v>
@@ -12507,10 +12507,10 @@
         <v>1073.620390123342</v>
       </c>
       <c r="M275">
-        <v>14019.92187393005</v>
+        <v>0</v>
       </c>
       <c r="N275">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -12542,7 +12542,7 @@
         <v>2122.932799770793</v>
       </c>
       <c r="J276">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K276">
         <v>12462.99629671648</v>
@@ -12551,10 +12551,10 @@
         <v>1073.620390123342</v>
       </c>
       <c r="M276">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N276">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -12586,7 +12586,7 @@
         <v>2813.367547055771</v>
       </c>
       <c r="J277">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K277">
         <v>12462.99629671648</v>
@@ -12595,10 +12595,10 @@
         <v>1073.620390123342</v>
       </c>
       <c r="M277">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N277">
-        <v>6098.713115526973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -12630,7 +12630,7 @@
         <v>2735.755207384653</v>
       </c>
       <c r="J278">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K278">
         <v>20298.05301337898</v>
@@ -12639,10 +12639,10 @@
         <v>1073.620390123342</v>
       </c>
       <c r="M278">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N278">
-        <v>4548.09588575093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -12674,7 +12674,7 @@
         <v>2780.444121362807</v>
       </c>
       <c r="J279">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K279">
         <v>10347.93748525102</v>
@@ -12683,10 +12683,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M279">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N279">
-        <v>4548.09588575093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -12718,7 +12718,7 @@
         <v>2913.035191885229</v>
       </c>
       <c r="J280">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K280">
         <v>15695.09956581411</v>
@@ -12727,10 +12727,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M280">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N280">
-        <v>4548.09588575093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -12762,7 +12762,7 @@
         <v>1912.310617960322</v>
       </c>
       <c r="J281">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K281">
         <v>26728.31897707651</v>
@@ -12771,10 +12771,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M281">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N281">
-        <v>4548.09588575093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -12806,7 +12806,7 @@
         <v>3545.858929583911</v>
       </c>
       <c r="J282">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K282">
         <v>26728.31897707651</v>
@@ -12815,10 +12815,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M282">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N282">
-        <v>4548.09588575093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -12850,7 +12850,7 @@
         <v>3940.042670148916</v>
       </c>
       <c r="J283">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K283">
         <v>26728.31897707651</v>
@@ -12859,10 +12859,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M283">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N283">
-        <v>4548.09588575093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -12894,7 +12894,7 @@
         <v>4868.222529222214</v>
       </c>
       <c r="J284">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K284">
         <v>26728.31897707651</v>
@@ -12903,10 +12903,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M284">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N284">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -12938,7 +12938,7 @@
         <v>3645.045495874526</v>
       </c>
       <c r="J285">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K285">
         <v>26728.31897707651</v>
@@ -12947,10 +12947,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M285">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N285">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:14">
@@ -12982,7 +12982,7 @@
         <v>3325.445468539494</v>
       </c>
       <c r="J286">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K286">
         <v>26728.31897707651</v>
@@ -12991,10 +12991,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M286">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N286">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -13026,7 +13026,7 @@
         <v>2947.813177596028</v>
       </c>
       <c r="J287">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K287">
         <v>26728.31897707651</v>
@@ -13035,10 +13035,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M287">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N287">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -13070,7 +13070,7 @@
         <v>2415.75386753305</v>
       </c>
       <c r="J288">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K288">
         <v>26728.31897707651</v>
@@ -13079,10 +13079,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M288">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N288">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -13114,7 +13114,7 @@
         <v>2115.115729588091</v>
       </c>
       <c r="J289">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K289">
         <v>26728.3189770765</v>
@@ -13123,10 +13123,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M289">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N289">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -13158,7 +13158,7 @@
         <v>1836.592721318175</v>
       </c>
       <c r="J290">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K290">
         <v>7106.172039212904</v>
@@ -13167,10 +13167,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M290">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N290">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -13202,7 +13202,7 @@
         <v>1200.781746085388</v>
       </c>
       <c r="J291">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K291">
         <v>7106.172039212904</v>
@@ -13211,10 +13211,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M291">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N291">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -13246,7 +13246,7 @@
         <v>1015.389557119701</v>
       </c>
       <c r="J292">
-        <v>3780.765106582089</v>
+        <v>0</v>
       </c>
       <c r="K292">
         <v>7106.172039212904</v>
@@ -13255,10 +13255,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M292">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N292">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -13290,7 +13290,7 @@
         <v>1003.408700574376</v>
       </c>
       <c r="J293">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K293">
         <v>7106.172039212904</v>
@@ -13299,10 +13299,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M293">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N293">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -13334,7 +13334,7 @@
         <v>899.9641345903159</v>
       </c>
       <c r="J294">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K294">
         <v>4499.614830558239</v>
@@ -13343,10 +13343,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M294">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N294">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -13378,7 +13378,7 @@
         <v>737.0220925932169</v>
       </c>
       <c r="J295">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K295">
         <v>4229.783384468587</v>
@@ -13387,10 +13387,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M295">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N295">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -13422,7 +13422,7 @@
         <v>534.5141093984136</v>
       </c>
       <c r="J296">
-        <v>113.6469553009587</v>
+        <v>0</v>
       </c>
       <c r="K296">
         <v>3582.238636920356</v>
@@ -13431,10 +13431,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M296">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N296">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -13466,7 +13466,7 @@
         <v>697.5119876111032</v>
       </c>
       <c r="J297">
-        <v>227.2939106019175</v>
+        <v>0</v>
       </c>
       <c r="K297">
         <v>1877.294837672376</v>
@@ -13475,10 +13475,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M297">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N297">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -13510,7 +13510,7 @@
         <v>423.7111278597182</v>
       </c>
       <c r="J298">
-        <v>227.2939106019175</v>
+        <v>0</v>
       </c>
       <c r="K298">
         <v>1813.528445038801</v>
@@ -13519,10 +13519,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M298">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N298">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -13554,7 +13554,7 @@
         <v>391.5714033355812</v>
       </c>
       <c r="J299">
-        <v>227.2939106019175</v>
+        <v>0</v>
       </c>
       <c r="K299">
         <v>1790.422801555035</v>
@@ -13563,10 +13563,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M299">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N299">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -13598,7 +13598,7 @@
         <v>541.8485951463678</v>
       </c>
       <c r="J300">
-        <v>227.2939106019175</v>
+        <v>0</v>
       </c>
       <c r="K300">
         <v>1711.444623695974</v>
@@ -13607,10 +13607,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M300">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N300">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -13642,7 +13642,7 @@
         <v>517.284648587559</v>
       </c>
       <c r="J301">
-        <v>227.2939106019175</v>
+        <v>0</v>
       </c>
       <c r="K301">
         <v>2122.814347057127</v>
@@ -13651,10 +13651,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M301">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N301">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -13686,7 +13686,7 @@
         <v>486.5069288937244</v>
       </c>
       <c r="J302">
-        <v>227.2939106019175</v>
+        <v>0</v>
       </c>
       <c r="K302">
         <v>798.9534844009587</v>
@@ -13695,10 +13695,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M302">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N302">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -13730,7 +13730,7 @@
         <v>544.887680594949</v>
       </c>
       <c r="J303">
-        <v>227.2939106019175</v>
+        <v>0</v>
       </c>
       <c r="K303">
         <v>646.846430857805</v>
@@ -13739,10 +13739,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M303">
-        <v>3416.883356759725</v>
+        <v>0</v>
       </c>
       <c r="N303">
-        <v>5969.407031001325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -13774,7 +13774,7 @@
         <v>498.6193993757998</v>
       </c>
       <c r="J304">
-        <v>3778.650293045508</v>
+        <v>0</v>
       </c>
       <c r="K304">
         <v>879.8898286496704</v>
@@ -13783,10 +13783,10 @@
         <v>918.4094246032741</v>
       </c>
       <c r="M304">
-        <v>4889.466620908963</v>
+        <v>0</v>
       </c>
       <c r="N304">
-        <v>7175.583802836731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -13818,7 +13818,7 @@
         <v>500.2845150907377</v>
       </c>
       <c r="J305">
-        <v>5812.432640112644</v>
+        <v>0</v>
       </c>
       <c r="K305">
         <v>1512.039212873387</v>
@@ -13827,10 +13827,10 @@
         <v>138.0708607644289</v>
       </c>
       <c r="M305">
-        <v>7521.123463692347</v>
+        <v>0</v>
       </c>
       <c r="N305">
-        <v>11037.69713334769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -13862,7 +13862,7 @@
         <v>646.4278327972531</v>
       </c>
       <c r="J306">
-        <v>4795.53268678711</v>
+        <v>0</v>
       </c>
       <c r="K306">
         <v>2972.694555871285</v>
@@ -13871,10 +13871,10 @@
         <v>271.4496374329473</v>
       </c>
       <c r="M306">
-        <v>6205.283681498139</v>
+        <v>0</v>
       </c>
       <c r="N306">
-        <v>9106.623795437126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -13906,7 +13906,7 @@
         <v>665.9286310923167</v>
       </c>
       <c r="J307">
-        <v>4779.704713891556</v>
+        <v>0</v>
       </c>
       <c r="K307">
         <v>1793.809997460663</v>
@@ -13915,10 +13915,10 @@
         <v>163.8005736151308</v>
       </c>
       <c r="M307">
-        <v>6184.802732178247</v>
+        <v>0</v>
       </c>
       <c r="N307">
-        <v>9076.566781124342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -13950,7 +13950,7 @@
         <v>638.066359512541</v>
       </c>
       <c r="J308">
-        <v>239.3299419267298</v>
+        <v>0</v>
       </c>
       <c r="K308">
         <v>2014.93521709787</v>
@@ -13959,10 +13959,10 @@
         <v>183.9924768092375</v>
       </c>
       <c r="M308">
-        <v>309.6861767252016</v>
+        <v>0</v>
       </c>
       <c r="N308">
-        <v>454.4829295222148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -13994,7 +13994,7 @@
         <v>534.5759280656748</v>
       </c>
       <c r="J309">
-        <v>227.2939106019175</v>
+        <v>0</v>
       </c>
       <c r="K309">
         <v>2112.393590259261</v>
@@ -14003,10 +14003,10 @@
         <v>192.8918237021814</v>
       </c>
       <c r="M309">
-        <v>294.1118925636861</v>
+        <v>0</v>
       </c>
       <c r="N309">
-        <v>431.6267388914724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -14038,7 +14038,7 @@
         <v>354.153162287563</v>
       </c>
       <c r="J310">
-        <v>227.2939106019175</v>
+        <v>0</v>
       </c>
       <c r="K310">
         <v>1755.672547279871</v>
@@ -14047,10 +14047,10 @@
         <v>160.3180775733676</v>
       </c>
       <c r="M310">
-        <v>294.1118925636861</v>
+        <v>0</v>
       </c>
       <c r="N310">
-        <v>431.6267388914724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -14082,7 +14082,7 @@
         <v>1394.665028121981</v>
       </c>
       <c r="J311">
-        <v>1098.219212531111</v>
+        <v>0</v>
       </c>
       <c r="K311">
         <v>1551.227737660388</v>
@@ -14091,10 +14091,10 @@
         <v>141.6493349887495</v>
       </c>
       <c r="M311">
-        <v>1421.064603939289</v>
+        <v>0</v>
       </c>
       <c r="N311">
-        <v>2085.497037898935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -14126,7 +14126,7 @@
         <v>624.9548196015029</v>
       </c>
       <c r="J312">
-        <v>1314.106939625683</v>
+        <v>0</v>
       </c>
       <c r="K312">
         <v>8658.515034297472</v>
@@ -14135,10 +14135,10 @@
         <v>790.6465742084604</v>
       </c>
       <c r="M312">
-        <v>1700.417217605488</v>
+        <v>0</v>
       </c>
       <c r="N312">
-        <v>2495.463654979683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -14170,7 +14170,7 @@
         <v>801.1838867586393</v>
       </c>
       <c r="J313">
-        <v>3436.258917268131</v>
+        <v>0</v>
       </c>
       <c r="K313">
         <v>6892.529717336811</v>
@@ -14179,10 +14179,10 @@
         <v>629.3867928918506</v>
       </c>
       <c r="M313">
-        <v>4446.421863305504</v>
+        <v>0</v>
       </c>
       <c r="N313">
-        <v>6525.389204310132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -14214,7 +14214,7 @@
         <v>1060.071946309451</v>
       </c>
       <c r="J314">
-        <v>1279.807315665885</v>
+        <v>0</v>
       </c>
       <c r="K314">
         <v>2584.503331239999</v>
@@ -14223,10 +14223,10 @@
         <v>236.0022124788119</v>
       </c>
       <c r="M314">
-        <v>1656.034474177281</v>
+        <v>0</v>
       </c>
       <c r="N314">
-        <v>2430.329332657692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -14258,7 +14258,7 @@
         <v>2142.674406628211</v>
       </c>
       <c r="J315">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K315">
         <v>11122.34894400846</v>
@@ -14267,10 +14267,10 @@
         <v>1015.629938262836</v>
       </c>
       <c r="M315">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N315">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -14302,7 +14302,7 @@
         <v>729.0096163646039</v>
       </c>
       <c r="J316">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K316">
         <v>4879.620011560268</v>
@@ -14311,10 +14311,10 @@
         <v>445.5792743093858</v>
       </c>
       <c r="M316">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N316">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -14346,7 +14346,7 @@
         <v>1084.215419261292</v>
       </c>
       <c r="J317">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K317">
         <v>6242.504116227516</v>
@@ -14355,10 +14355,10 @@
         <v>570.030135008937</v>
       </c>
       <c r="M317">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N317">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -14390,7 +14390,7 @@
         <v>1021.671798476755</v>
       </c>
       <c r="J318">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K318">
         <v>3314.449483185356</v>
@@ -14399,10 +14399,10 @@
         <v>302.6567626073457</v>
       </c>
       <c r="M318">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N318">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -14434,7 +14434,7 @@
         <v>999.8185575193557</v>
       </c>
       <c r="J319">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K319">
         <v>7667.180564978836</v>
@@ -14443,10 +14443,10 @@
         <v>700.123522743304</v>
       </c>
       <c r="M319">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N319">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -14478,7 +14478,7 @@
         <v>835.4757059142058</v>
       </c>
       <c r="J320">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K320">
         <v>4765.140380329663</v>
@@ -14487,10 +14487,10 @@
         <v>435.125642492545</v>
       </c>
       <c r="M320">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N320">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -14522,7 +14522,7 @@
         <v>756.0773969927413</v>
       </c>
       <c r="J321">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K321">
         <v>5807.035096770146</v>
@@ -14531,10 +14531,10 @@
         <v>530.2655694865509</v>
       </c>
       <c r="M321">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N321">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -14566,7 +14566,7 @@
         <v>913.8635049290632</v>
       </c>
       <c r="J322">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K322">
         <v>5954.418187727432</v>
@@ -14575,10 +14575,10 @@
         <v>543.7237589682404</v>
       </c>
       <c r="M322">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N322">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -14610,7 +14610,7 @@
         <v>1016.349265380883</v>
       </c>
       <c r="J323">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K323">
         <v>7307.651253206912</v>
@@ -14619,10 +14619,10 @@
         <v>667.2933414068964</v>
       </c>
       <c r="M323">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N323">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -14654,7 +14654,7 @@
         <v>1621.768120496122</v>
       </c>
       <c r="J324">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K324">
         <v>8036.425149144438</v>
@@ -14663,10 +14663,10 @@
         <v>733.840847753325</v>
       </c>
       <c r="M324">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N324">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -14698,7 +14698,7 @@
         <v>2127.771313959769</v>
       </c>
       <c r="J325">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K325">
         <v>9971.354127332219</v>
@@ -14707,10 +14707,10 @@
         <v>910.5276077671306</v>
       </c>
       <c r="M325">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N325">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:14">
@@ -14742,7 +14742,7 @@
         <v>1906.029956896093</v>
       </c>
       <c r="J326">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K326">
         <v>7472.875117105315</v>
@@ -14751,10 +14751,10 @@
         <v>682.3806492710395</v>
       </c>
       <c r="M326">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N326">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -14786,7 +14786,7 @@
         <v>2128.781823866378</v>
       </c>
       <c r="J327">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K327">
         <v>9341.884767729392</v>
@@ -14795,10 +14795,10 @@
         <v>853.0480294828909</v>
       </c>
       <c r="M327">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N327">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -14830,7 +14830,7 @@
         <v>2043.104468655</v>
       </c>
       <c r="J328">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K328">
         <v>8389.145741090051</v>
@@ -14839,10 +14839,10 @@
         <v>766.0492953416135</v>
       </c>
       <c r="M328">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N328">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -14874,7 +14874,7 @@
         <v>2336.476321846601</v>
       </c>
       <c r="J329">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K329">
         <v>10881.0569060128</v>
@@ -14883,10 +14883,10 @@
         <v>993.5965153872785</v>
       </c>
       <c r="M329">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N329">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -14918,7 +14918,7 @@
         <v>2845.295058179803</v>
       </c>
       <c r="J330">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K330">
         <v>10322.03531499023</v>
@@ -14927,10 +14927,10 @@
         <v>942.5498285016193</v>
       </c>
       <c r="M330">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N330">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -14962,7 +14962,7 @@
         <v>4868.222529222214</v>
       </c>
       <c r="J331">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K331">
         <v>25277.30812197681</v>
@@ -14971,10 +14971,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M331">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N331">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -15006,7 +15006,7 @@
         <v>4868.222529222214</v>
       </c>
       <c r="J332">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K332">
         <v>26728.31897707651</v>
@@ -15015,10 +15015,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M332">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N332">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -15050,7 +15050,7 @@
         <v>4868.222529222214</v>
       </c>
       <c r="J333">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K333">
         <v>26728.31897707651</v>
@@ -15059,10 +15059,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M333">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N333">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -15094,7 +15094,7 @@
         <v>4868.222529222214</v>
       </c>
       <c r="J334">
-        <v>68.18817318057525</v>
+        <v>0</v>
       </c>
       <c r="K334">
         <v>26728.31897707651</v>
@@ -15103,10 +15103,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M334">
-        <v>88.23356776910583</v>
+        <v>0</v>
       </c>
       <c r="N334">
-        <v>129.4880216674417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -15138,7 +15138,7 @@
         <v>4323.476538939802</v>
       </c>
       <c r="J335">
-        <v>19.48233519445007</v>
+        <v>0</v>
       </c>
       <c r="K335">
         <v>26728.31897707651</v>
@@ -15147,10 +15147,10 @@
         <v>1167.271732946733</v>
       </c>
       <c r="M335">
-        <v>25.20959079117309</v>
+        <v>0</v>
       </c>
       <c r="N335">
-        <v>36.99657761926905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -16414,7 +16414,7 @@
         <v>437.4281398853971</v>
       </c>
       <c r="J364">
-        <v>129.8822346296671</v>
+        <v>0</v>
       </c>
       <c r="K364">
         <v>3938.378728778565</v>
@@ -16423,10 +16423,10 @@
         <v>359.630449044649</v>
       </c>
       <c r="M364">
-        <v>168.0639386078206</v>
+        <v>0</v>
       </c>
       <c r="N364">
-        <v>246.6438507951271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:14">
@@ -16458,7 +16458,7 @@
         <v>560.7867152707242</v>
       </c>
       <c r="J365">
-        <v>227.2939106019175</v>
+        <v>0</v>
       </c>
       <c r="K365">
         <v>4796.518301416014</v>
@@ -16467,10 +16467,10 @@
         <v>437.9908966053388</v>
       </c>
       <c r="M365">
-        <v>294.1118925636861</v>
+        <v>0</v>
       </c>
       <c r="N365">
-        <v>431.6267388914724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:14">
@@ -16502,7 +16502,7 @@
         <v>520.3824736957149</v>
       </c>
       <c r="J366">
-        <v>516.5108407091038</v>
+        <v>0</v>
       </c>
       <c r="K366">
         <v>4614.672222042937</v>
@@ -16511,10 +16511,10 @@
         <v>150.9047422842443</v>
       </c>
       <c r="M366">
-        <v>2806.641317359599</v>
+        <v>0</v>
       </c>
       <c r="N366">
-        <v>2809.487264082451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:14">
@@ -16546,7 +16546,7 @@
         <v>736.6420610139915</v>
       </c>
       <c r="J367">
-        <v>479.2926144882101</v>
+        <v>0</v>
       </c>
       <c r="K367">
         <v>6030.195016031762</v>
@@ -16555,10 +16555,10 @@
         <v>197.1938592889167</v>
       </c>
       <c r="M367">
-        <v>2604.403139111512</v>
+        <v>0</v>
       </c>
       <c r="N367">
-        <v>2607.044015426165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:14">
@@ -16590,7 +16590,7 @@
         <v>1285.364102266327</v>
       </c>
       <c r="J368">
-        <v>504.467134173838</v>
+        <v>0</v>
       </c>
       <c r="K368">
         <v>6506.901105737521</v>
@@ -16599,10 +16599,10 @@
         <v>212.7826608659289</v>
       </c>
       <c r="M368">
-        <v>2741.197648588534</v>
+        <v>0</v>
       </c>
       <c r="N368">
-        <v>2743.977235141485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:14">
@@ -16634,7 +16634,7 @@
         <v>774.4810146779959</v>
       </c>
       <c r="J369">
-        <v>778.9229263317836</v>
+        <v>0</v>
       </c>
       <c r="K369">
         <v>4540.956136639051</v>
@@ -16643,10 +16643,10 @@
         <v>148.4941470491287</v>
       </c>
       <c r="M369">
-        <v>4232.548662638163</v>
+        <v>0</v>
       </c>
       <c r="N369">
-        <v>4236.84048572266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:14">
@@ -16678,7 +16678,7 @@
         <v>769.1792651620194</v>
       </c>
       <c r="J370">
-        <v>572.1767695404875</v>
+        <v>0</v>
       </c>
       <c r="K370">
         <v>7212.78594164399</v>
@@ -16687,10 +16687,10 @@
         <v>235.8658538034468</v>
       </c>
       <c r="M370">
-        <v>3109.121504634798</v>
+        <v>0</v>
       </c>
       <c r="N370">
-        <v>3112.274167606847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -16722,7 +16722,7 @@
         <v>964.3302208405801</v>
       </c>
       <c r="J371">
-        <v>567.51655869557</v>
+        <v>0</v>
       </c>
       <c r="K371">
         <v>5790.293063614228</v>
@@ -16731,10 +16731,10 @@
         <v>189.3488075580208</v>
       </c>
       <c r="M371">
-        <v>3083.798627990048</v>
+        <v>0</v>
       </c>
       <c r="N371">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:14">
@@ -16766,7 +16766,7 @@
         <v>707.5725306263922</v>
       </c>
       <c r="J372">
-        <v>601.8514691479982</v>
+        <v>0</v>
       </c>
       <c r="K372">
         <v>6829.550466128224</v>
@@ -16775,10 +16775,10 @@
         <v>223.3336417883356</v>
       </c>
       <c r="M372">
-        <v>3270.369307070721</v>
+        <v>0</v>
       </c>
       <c r="N372">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:14">
@@ -16810,7 +16810,7 @@
         <v>707.5725306263922</v>
       </c>
       <c r="J373">
-        <v>684.532273279906</v>
+        <v>0</v>
       </c>
       <c r="K373">
         <v>7946.193673506974</v>
@@ -16819,10 +16819,10 @@
         <v>259.8490750249661</v>
       </c>
       <c r="M373">
-        <v>3719.644216210181</v>
+        <v>0</v>
       </c>
       <c r="N373">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -16854,7 +16854,7 @@
         <v>1005.323411636243</v>
       </c>
       <c r="J374">
-        <v>740.7224413419196</v>
+        <v>0</v>
       </c>
       <c r="K374">
         <v>8556.939840923053</v>
@@ -16863,10 +16863,10 @@
         <v>279.8211312318556</v>
       </c>
       <c r="M374">
-        <v>4024.973039697637</v>
+        <v>0</v>
       </c>
       <c r="N374">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:14">
@@ -16898,7 +16898,7 @@
         <v>943.0750433036034</v>
       </c>
       <c r="J375">
-        <v>888.7234536103416</v>
+        <v>0</v>
       </c>
       <c r="K375">
         <v>11559.1397147948</v>
@@ -16907,10 +16907,10 @@
         <v>377.9962943752612</v>
       </c>
       <c r="M375">
-        <v>4829.188020884336</v>
+        <v>0</v>
       </c>
       <c r="N375">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:14">
@@ -16942,7 +16942,7 @@
         <v>1517.534960566667</v>
       </c>
       <c r="J376">
-        <v>1156.182031616298</v>
+        <v>0</v>
       </c>
       <c r="K376">
         <v>16109.11525932956</v>
@@ -16951,10 +16951,10 @@
         <v>526.7853857581514</v>
       </c>
       <c r="M376">
-        <v>6282.517237911418</v>
+        <v>0</v>
       </c>
       <c r="N376">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:14">
@@ -16986,7 +16986,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J377">
-        <v>1138.493096313299</v>
+        <v>0</v>
       </c>
       <c r="K377">
         <v>31265.41407292632</v>
@@ -16995,10 +16995,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M377">
-        <v>6186.398254980996</v>
+        <v>0</v>
       </c>
       <c r="N377">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:14">
@@ -17030,7 +17030,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J378">
-        <v>965.2347897438865</v>
+        <v>0</v>
       </c>
       <c r="K378">
         <v>20137.52596815151</v>
@@ -17039,10 +17039,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M378">
-        <v>5244.938979652181</v>
+        <v>0</v>
       </c>
       <c r="N378">
-        <v>1620.763018611727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:14">
@@ -17074,7 +17074,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J379">
-        <v>713.2881746568912</v>
+        <v>0</v>
       </c>
       <c r="K379">
         <v>15729.57333262182</v>
@@ -17083,10 +17083,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M379">
-        <v>3875.89940886357</v>
+        <v>0</v>
       </c>
       <c r="N379">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:14">
@@ -17118,7 +17118,7 @@
         <v>1482.693851990556</v>
       </c>
       <c r="J380">
-        <v>779.2291924086254</v>
+        <v>0</v>
       </c>
       <c r="K380">
         <v>17363.13465301942</v>
@@ -17127,10 +17127,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M380">
-        <v>4234.212865899009</v>
+        <v>0</v>
       </c>
       <c r="N380">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:14">
@@ -17162,7 +17162,7 @@
         <v>1236.736961590261</v>
       </c>
       <c r="J381">
-        <v>789.0490209444814</v>
+        <v>0</v>
       </c>
       <c r="K381">
         <v>20148.48746783982</v>
@@ -17171,10 +17171,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M381">
-        <v>4287.572320001236</v>
+        <v>0</v>
       </c>
       <c r="N381">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -17206,7 +17206,7 @@
         <v>1149.098500072102</v>
       </c>
       <c r="J382">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K382">
         <v>16636.33956499014</v>
@@ -17215,10 +17215,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M382">
-        <v>6183.414683369209</v>
+        <v>0</v>
       </c>
       <c r="N382">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:14">
@@ -17250,7 +17250,7 @@
         <v>1201.120286121707</v>
       </c>
       <c r="J383">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K383">
         <v>15186.44293773961</v>
@@ -17259,10 +17259,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M383">
-        <v>6461.81639823975</v>
+        <v>0</v>
       </c>
       <c r="N383">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -17294,7 +17294,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J384">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K384">
         <v>22708.26048573244</v>
@@ -17303,10 +17303,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M384">
-        <v>6840.505100603913</v>
+        <v>0</v>
       </c>
       <c r="N384">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:14">
@@ -17338,7 +17338,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J385">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K385">
         <v>22708.26048573244</v>
@@ -17347,10 +17347,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M385">
-        <v>8208.855001572714</v>
+        <v>0</v>
       </c>
       <c r="N385">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:14">
@@ -17382,7 +17382,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J386">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K386">
         <v>22708.26048573244</v>
@@ -17391,10 +17391,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M386">
-        <v>4467.734700556956</v>
+        <v>0</v>
       </c>
       <c r="N386">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:14">
@@ -17426,7 +17426,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J387">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K387">
         <v>22708.26048573244</v>
@@ -17435,10 +17435,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M387">
-        <v>4467.734700556956</v>
+        <v>0</v>
       </c>
       <c r="N387">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:14">
@@ -17470,7 +17470,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J388">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K388">
         <v>22708.26048573244</v>
@@ -17479,10 +17479,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M388">
-        <v>4467.734700556956</v>
+        <v>0</v>
       </c>
       <c r="N388">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:14">
@@ -17514,7 +17514,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J389">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K389">
         <v>22708.26048573244</v>
@@ -17523,10 +17523,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M389">
-        <v>4489.65680666005</v>
+        <v>0</v>
       </c>
       <c r="N389">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:14">
@@ -17558,7 +17558,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J390">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K390">
         <v>22708.26048573244</v>
@@ -17567,10 +17567,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M390">
-        <v>4489.65680666005</v>
+        <v>0</v>
       </c>
       <c r="N390">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:14">
@@ -17602,7 +17602,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J391">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K391">
         <v>22708.26048573244</v>
@@ -17611,10 +17611,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M391">
-        <v>4489.65680666005</v>
+        <v>0</v>
       </c>
       <c r="N391">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:14">
@@ -17646,7 +17646,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J392">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K392">
         <v>22708.26048573244</v>
@@ -17655,10 +17655,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M392">
-        <v>4489.65680666005</v>
+        <v>0</v>
       </c>
       <c r="N392">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -17690,7 +17690,7 @@
         <v>1682.305185887457</v>
       </c>
       <c r="J393">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K393">
         <v>22708.26048573244</v>
@@ -17699,10 +17699,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M393">
-        <v>4489.65680666005</v>
+        <v>0</v>
       </c>
       <c r="N393">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:14">
@@ -17734,7 +17734,7 @@
         <v>1231.222010654821</v>
       </c>
       <c r="J394">
-        <v>1063.634574001674</v>
+        <v>0</v>
       </c>
       <c r="K394">
         <v>22708.26048573244</v>
@@ -17743,10 +17743,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M394">
-        <v>4489.65680666005</v>
+        <v>0</v>
       </c>
       <c r="N394">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:14">
@@ -17778,7 +17778,7 @@
         <v>406.9800389522482</v>
       </c>
       <c r="J395">
-        <v>749.4099681104997</v>
+        <v>0</v>
       </c>
       <c r="K395">
         <v>7209.583487584191</v>
@@ -17787,10 +17787,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M395">
-        <v>4489.65680666005</v>
+        <v>0</v>
       </c>
       <c r="N395">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:14">
@@ -17822,7 +17822,7 @@
         <v>558.3499059545782</v>
       </c>
       <c r="J396">
-        <v>296.322638213682</v>
+        <v>0</v>
       </c>
       <c r="K396">
         <v>7209.583487584191</v>
@@ -17831,10 +17831,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M396">
-        <v>4489.65680666005</v>
+        <v>0</v>
       </c>
       <c r="N396">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:14">
@@ -17866,7 +17866,7 @@
         <v>421.9899522922536</v>
       </c>
       <c r="J397">
-        <v>284.3611544630097</v>
+        <v>0</v>
       </c>
       <c r="K397">
         <v>7209.583487584191</v>
@@ -17875,10 +17875,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M397">
-        <v>4489.65680666005</v>
+        <v>0</v>
       </c>
       <c r="N397">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:14">
@@ -17910,7 +17910,7 @@
         <v>458.3152675105758</v>
       </c>
       <c r="J398">
-        <v>396.6697525870562</v>
+        <v>0</v>
       </c>
       <c r="K398">
         <v>7209.583487584191</v>
@@ -17919,10 +17919,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M398">
-        <v>3013.433301506598</v>
+        <v>0</v>
       </c>
       <c r="N398">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:14">
@@ -17954,7 +17954,7 @@
         <v>505.0734461270536</v>
       </c>
       <c r="J399">
-        <v>359.5011911353798</v>
+        <v>0</v>
       </c>
       <c r="K399">
         <v>7209.58348758419</v>
@@ -17963,10 +17963,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M399">
-        <v>1953.474771788586</v>
+        <v>0</v>
       </c>
       <c r="N399">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -17998,7 +17998,7 @@
         <v>449.9400691082083</v>
       </c>
       <c r="J400">
-        <v>342.6593160629256</v>
+        <v>0</v>
       </c>
       <c r="K400">
         <v>7209.583487584191</v>
@@ -18007,10 +18007,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M400">
-        <v>1861.958585264284</v>
+        <v>0</v>
       </c>
       <c r="N400">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:14">
@@ -18042,7 +18042,7 @@
         <v>713.5400036759172</v>
       </c>
       <c r="J401">
-        <v>391.3528631269284</v>
+        <v>0</v>
       </c>
       <c r="K401">
         <v>7209.583487584191</v>
@@ -18051,10 +18051,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M401">
-        <v>2126.551910916462</v>
+        <v>0</v>
       </c>
       <c r="N401">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:14">
@@ -18086,7 +18086,7 @@
         <v>433.4466294931911</v>
       </c>
       <c r="J402">
-        <v>350.6001608300493</v>
+        <v>0</v>
       </c>
       <c r="K402">
         <v>7209.583487584191</v>
@@ -18095,10 +18095,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M402">
-        <v>1905.107927468894</v>
+        <v>0</v>
       </c>
       <c r="N402">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:14">
@@ -18130,7 +18130,7 @@
         <v>400.5701615556137</v>
       </c>
       <c r="J403">
-        <v>392.4096190497249</v>
+        <v>0</v>
       </c>
       <c r="K403">
         <v>7209.583487584191</v>
@@ -18139,10 +18139,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M403">
-        <v>2132.294161807486</v>
+        <v>0</v>
       </c>
       <c r="N403">
-        <v>5198.122344558068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:14">
@@ -18174,7 +18174,7 @@
         <v>554.3028302165214</v>
       </c>
       <c r="J404">
-        <v>372.3009058242913</v>
+        <v>0</v>
       </c>
       <c r="K404">
         <v>7209.583487584191</v>
@@ -18183,10 +18183,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M404">
-        <v>2023.02647383417</v>
+        <v>0</v>
       </c>
       <c r="N404">
-        <v>2788.501745680366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -18218,7 +18218,7 @@
         <v>652.2396541038427</v>
       </c>
       <c r="J405">
-        <v>291.0410659227757</v>
+        <v>0</v>
       </c>
       <c r="K405">
         <v>7209.583487584191</v>
@@ -18227,10 +18227,10 @@
         <v>532.8638899199327</v>
       </c>
       <c r="M405">
-        <v>1581.472868112144</v>
+        <v>0</v>
       </c>
       <c r="N405">
-        <v>1583.076488602744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -18262,7 +18262,7 @@
         <v>454.7921435421781</v>
       </c>
       <c r="J406">
-        <v>330.6901066814861</v>
+        <v>0</v>
       </c>
       <c r="K406">
         <v>7209.583487584192</v>
@@ -18271,10 +18271,10 @@
         <v>303.3459193056011</v>
       </c>
       <c r="M406">
-        <v>1796.919722691802</v>
+        <v>0</v>
       </c>
       <c r="N406">
-        <v>1798.741807246886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -18306,7 +18306,7 @@
         <v>415.9795630265085</v>
       </c>
       <c r="J407">
-        <v>271.4869426202719</v>
+        <v>0</v>
       </c>
       <c r="K407">
         <v>7209.583487584191</v>
@@ -18315,10 +18315,10 @@
         <v>51.32674284796101</v>
       </c>
       <c r="M407">
-        <v>1475.218737394953</v>
+        <v>0</v>
       </c>
       <c r="N407">
-        <v>1476.714615726541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:14">
@@ -18350,7 +18350,7 @@
         <v>437.0801647540457</v>
       </c>
       <c r="J408">
-        <v>322.7051154528356</v>
+        <v>0</v>
       </c>
       <c r="K408">
         <v>5553.489020583092</v>
@@ -18359,10 +18359,10 @@
         <v>69.81901229180393</v>
       </c>
       <c r="M408">
-        <v>1753.530495332475</v>
+        <v>0</v>
       </c>
       <c r="N408">
-        <v>1755.308583018901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:14">
@@ -18394,7 +18394,7 @@
         <v>494.6265303825855</v>
       </c>
       <c r="J409">
-        <v>451.3203128033244</v>
+        <v>0</v>
       </c>
       <c r="K409">
         <v>4212.909429119212</v>
@@ -18403,10 +18403,10 @@
         <v>137.7666670736256</v>
       </c>
       <c r="M409">
-        <v>2452.405907954339</v>
+        <v>0</v>
       </c>
       <c r="N409">
-        <v>2454.892658403595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:14">
@@ -18438,7 +18438,7 @@
         <v>640.0361950702872</v>
       </c>
       <c r="J410">
-        <v>473.8515631050384</v>
+        <v>0</v>
       </c>
       <c r="K410">
         <v>5679.987015663817</v>
@@ -18447,10 +18447,10 @@
         <v>185.7416812146072</v>
       </c>
       <c r="M410">
-        <v>2574.837293792717</v>
+        <v>0</v>
       </c>
       <c r="N410">
-        <v>2577.448190209306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -18482,7 +18482,7 @@
         <v>721.27280910399</v>
       </c>
       <c r="J411">
-        <v>482.8850327949492</v>
+        <v>0</v>
       </c>
       <c r="K411">
         <v>4201.066243586408</v>
@@ -18491,10 +18491,10 @@
         <v>137.3793821756614</v>
       </c>
       <c r="M411">
-        <v>2623.923793576559</v>
+        <v>0</v>
       </c>
       <c r="N411">
-        <v>2626.584463921271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:14">
@@ -18526,7 +18526,7 @@
         <v>765.7866272665256</v>
       </c>
       <c r="J412">
-        <v>430.8694645010586</v>
+        <v>0</v>
       </c>
       <c r="K412">
         <v>3471.643970034009</v>
@@ -18535,10 +18535,10 @@
         <v>113.526489725137</v>
       </c>
       <c r="M412">
-        <v>2341.279110031971</v>
+        <v>0</v>
       </c>
       <c r="N412">
-        <v>2343.653177416095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:14">
@@ -18570,7 +18570,7 @@
         <v>564.807962824285</v>
       </c>
       <c r="J413">
-        <v>492.2137319463201</v>
+        <v>0</v>
       </c>
       <c r="K413">
         <v>4945.006546889031</v>
@@ -18579,10 +18579,10 @@
         <v>161.7070298054306</v>
       </c>
       <c r="M413">
-        <v>2674.614525332566</v>
+        <v>0</v>
       </c>
       <c r="N413">
-        <v>2677.326596303723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:14">
@@ -18614,7 +18614,7 @@
         <v>399.2693157826668</v>
       </c>
       <c r="J414">
-        <v>586.044276767577</v>
+        <v>0</v>
       </c>
       <c r="K414">
         <v>6282.905242541612</v>
@@ -18623,10 +18623,10 @@
         <v>205.4577553511118</v>
       </c>
       <c r="M414">
-        <v>3184.475428860084</v>
+        <v>0</v>
       </c>
       <c r="N414">
-        <v>3187.704501044944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:14">
@@ -18658,7 +18658,7 @@
         <v>1572.347141098365</v>
       </c>
       <c r="J415">
-        <v>679.7672145888628</v>
+        <v>0</v>
       </c>
       <c r="K415">
         <v>6074.219734888616</v>
@@ -18667,10 +18667,10 @@
         <v>198.6335149206851</v>
       </c>
       <c r="M415">
-        <v>3693.751612322981</v>
+        <v>0</v>
       </c>
       <c r="N415">
-        <v>3697.49709281281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -18702,7 +18702,7 @@
         <v>704.5725992503717</v>
       </c>
       <c r="J416">
-        <v>587.1313833826732</v>
+        <v>0</v>
       </c>
       <c r="K416">
         <v>7642.071630524231</v>
@@ -18711,10 +18711,10 @@
         <v>249.9039572980669</v>
       </c>
       <c r="M416">
-        <v>3190.382600794975</v>
+        <v>0</v>
       </c>
       <c r="N416">
-        <v>3193.617662878332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -18746,7 +18746,7 @@
         <v>903.2547088095087</v>
       </c>
       <c r="J417">
-        <v>674.5910419748515</v>
+        <v>0</v>
       </c>
       <c r="K417">
         <v>5599.705945120518</v>
@@ -18755,10 +18755,10 @@
         <v>183.116403908286</v>
       </c>
       <c r="M417">
-        <v>3665.625077932484</v>
+        <v>0</v>
       </c>
       <c r="N417">
-        <v>3669.342037991904</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/SCE_output.xlsx
+++ b/Stochastic_engine/SCE_output.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N209"/>
+  <dimension ref="A1:N417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9609,6 +9609,9158 @@
         <v>0</v>
       </c>
     </row>
+    <row r="210" spans="1:14">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>4687.152508215563</v>
+      </c>
+      <c r="C210">
+        <v>3867.237846478731</v>
+      </c>
+      <c r="D210">
+        <v>4433.902088120512</v>
+      </c>
+      <c r="E210">
+        <v>10115.69938820631</v>
+      </c>
+      <c r="F210">
+        <v>6038.015114944969</v>
+      </c>
+      <c r="G210">
+        <v>2686.340737688468</v>
+      </c>
+      <c r="H210">
+        <v>3617.055608550992</v>
+      </c>
+      <c r="I210">
+        <v>4239.588118219471</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>8037.722094068984</v>
+      </c>
+      <c r="L210">
+        <v>96.43849844095328</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6691.414755517944</v>
+      </c>
+      <c r="C211">
+        <v>5520.898315910978</v>
+      </c>
+      <c r="D211">
+        <v>6329.872519609282</v>
+      </c>
+      <c r="E211">
+        <v>14441.24978438072</v>
+      </c>
+      <c r="F211">
+        <v>8619.916540664226</v>
+      </c>
+      <c r="G211">
+        <v>2581.94321140169</v>
+      </c>
+      <c r="H211">
+        <v>10929.4271263677</v>
+      </c>
+      <c r="I211">
+        <v>2200.543126801841</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>11474.7135124651</v>
+      </c>
+      <c r="L211">
+        <v>137.6763376776626</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>12704.48122867555</v>
+      </c>
+      <c r="C212">
+        <v>9215.657449596931</v>
+      </c>
+      <c r="D212">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E212">
+        <v>27418.50468213554</v>
+      </c>
+      <c r="F212">
+        <v>16365.981169126</v>
+      </c>
+      <c r="G212">
+        <v>2581.94321140169</v>
+      </c>
+      <c r="H212">
+        <v>3976.216358884178</v>
+      </c>
+      <c r="I212">
+        <v>2004.805320881815</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>21786.16746231843</v>
+      </c>
+      <c r="L212">
+        <v>261.3956108782966</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>8096.699422220334</v>
+      </c>
+      <c r="C213">
+        <v>7946.812285191149</v>
+      </c>
+      <c r="D213">
+        <v>8198.776848851587</v>
+      </c>
+      <c r="E213">
+        <v>17474.10122633838</v>
+      </c>
+      <c r="F213">
+        <v>10430.21181982931</v>
+      </c>
+      <c r="G213">
+        <v>2581.94321140169</v>
+      </c>
+      <c r="H213">
+        <v>4812.630284323681</v>
+      </c>
+      <c r="I213">
+        <v>1575.352105536759</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>13884.5535153692</v>
+      </c>
+      <c r="L213">
+        <v>166.5901703087388</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>8181.287719913141</v>
+      </c>
+      <c r="C214">
+        <v>6750.150640057795</v>
+      </c>
+      <c r="D214">
+        <v>7739.246512942625</v>
+      </c>
+      <c r="E214">
+        <v>17656.65764832822</v>
+      </c>
+      <c r="F214">
+        <v>10539.17892066962</v>
+      </c>
+      <c r="G214">
+        <v>2581.94321140169</v>
+      </c>
+      <c r="H214">
+        <v>4266.254519450672</v>
+      </c>
+      <c r="I214">
+        <v>2138.169246694929</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>14029.6090108056</v>
+      </c>
+      <c r="L214">
+        <v>168.3305805900071</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>5714.41079549484</v>
+      </c>
+      <c r="C215">
+        <v>4714.799797943323</v>
+      </c>
+      <c r="D215">
+        <v>5405.656827703483</v>
+      </c>
+      <c r="E215">
+        <v>12332.70342422752</v>
+      </c>
+      <c r="F215">
+        <v>7361.33477537269</v>
+      </c>
+      <c r="G215">
+        <v>2581.94321140169</v>
+      </c>
+      <c r="H215">
+        <v>2836.771732991604</v>
+      </c>
+      <c r="I215">
+        <v>2135.934668435647</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>9799.306897957422</v>
+      </c>
+      <c r="L215">
+        <v>117.5744112499766</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>6739.942046358246</v>
+      </c>
+      <c r="C216">
+        <v>5560.936820183189</v>
+      </c>
+      <c r="D216">
+        <v>6375.77784396357</v>
+      </c>
+      <c r="E216">
+        <v>14545.9802119493</v>
+      </c>
+      <c r="F216">
+        <v>8682.429658184403</v>
+      </c>
+      <c r="G216">
+        <v>2581.94321140169</v>
+      </c>
+      <c r="H216">
+        <v>2523.813653128695</v>
+      </c>
+      <c r="I216">
+        <v>2058.690871674292</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>11557.93010869676</v>
+      </c>
+      <c r="L216">
+        <v>138.6747901610933</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>7841.900739738055</v>
+      </c>
+      <c r="C217">
+        <v>6470.131977973574</v>
+      </c>
+      <c r="D217">
+        <v>7418.1968698082</v>
+      </c>
+      <c r="E217">
+        <v>16924.20086103471</v>
+      </c>
+      <c r="F217">
+        <v>10101.97878422839</v>
+      </c>
+      <c r="G217">
+        <v>2581.94321140169</v>
+      </c>
+      <c r="H217">
+        <v>6722.032000370128</v>
+      </c>
+      <c r="I217">
+        <v>1926.937683050362</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>13447.61424442852</v>
+      </c>
+      <c r="L217">
+        <v>161.3476691739338</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>13575.35758472059</v>
+      </c>
+      <c r="C218">
+        <v>9215.657449596931</v>
+      </c>
+      <c r="D218">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E218">
+        <v>29298.00900946583</v>
+      </c>
+      <c r="F218">
+        <v>17487.84878316915</v>
+      </c>
+      <c r="G218">
+        <v>2581.94321140169</v>
+      </c>
+      <c r="H218">
+        <v>5130.808488334101</v>
+      </c>
+      <c r="I218">
+        <v>3985.505831891192</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>23279.58209218513</v>
+      </c>
+      <c r="L218">
+        <v>279.3139542557531</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>12764.7450698068</v>
+      </c>
+      <c r="C219">
+        <v>9215.657449596931</v>
+      </c>
+      <c r="D219">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E219">
+        <v>27548.56464920378</v>
+      </c>
+      <c r="F219">
+        <v>16443.61337396621</v>
+      </c>
+      <c r="G219">
+        <v>2581.94321140169</v>
+      </c>
+      <c r="H219">
+        <v>5051.966326647525</v>
+      </c>
+      <c r="I219">
+        <v>2721.015776964327</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>21889.51037819008</v>
+      </c>
+      <c r="L219">
+        <v>262.6355437242612</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>12102.51173991849</v>
+      </c>
+      <c r="C220">
+        <v>9215.657449596931</v>
+      </c>
+      <c r="D220">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E220">
+        <v>26119.34866396345</v>
+      </c>
+      <c r="F220">
+        <v>15590.52083036382</v>
+      </c>
+      <c r="G220">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H220">
+        <v>6688.15937950847</v>
+      </c>
+      <c r="I220">
+        <v>3201.690434925463</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>20753.88539953996</v>
+      </c>
+      <c r="L220">
+        <v>249.0100455481212</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>12073.44401432743</v>
+      </c>
+      <c r="C221">
+        <v>9215.657449596931</v>
+      </c>
+      <c r="D221">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E221">
+        <v>26056.61540033214</v>
+      </c>
+      <c r="F221">
+        <v>15553.07562964371</v>
+      </c>
+      <c r="G221">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H221">
+        <v>11410.58458859517</v>
+      </c>
+      <c r="I221">
+        <v>3139.705177124512</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>20704.03886696009</v>
+      </c>
+      <c r="L221">
+        <v>248.4119750129334</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>11816.57775303742</v>
+      </c>
+      <c r="C222">
+        <v>9215.657449596931</v>
+      </c>
+      <c r="D222">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E222">
+        <v>25502.25283636013</v>
+      </c>
+      <c r="F222">
+        <v>15222.17912788278</v>
+      </c>
+      <c r="G222">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H222">
+        <v>9676.763576956273</v>
+      </c>
+      <c r="I222">
+        <v>4244.471464300968</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>20263.55402675641</v>
+      </c>
+      <c r="L222">
+        <v>243.1269332961275</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>14750.53588966935</v>
+      </c>
+      <c r="C223">
+        <v>9215.657449596931</v>
+      </c>
+      <c r="D223">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E223">
+        <v>42282.08844636047</v>
+      </c>
+      <c r="F223">
+        <v>25237.98694811093</v>
+      </c>
+      <c r="G223">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H223">
+        <v>15998.1011752071</v>
+      </c>
+      <c r="I223">
+        <v>3752.117683355394</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>33596.45867738189</v>
+      </c>
+      <c r="L223">
+        <v>403.0982895229765</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>14750.53588966935</v>
+      </c>
+      <c r="C224">
+        <v>9215.657449596931</v>
+      </c>
+      <c r="D224">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E224">
+        <v>44927.12232758488</v>
+      </c>
+      <c r="F224">
+        <v>26816.79568307537</v>
+      </c>
+      <c r="G224">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H224">
+        <v>11973.61820186247</v>
+      </c>
+      <c r="I224">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L224">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>14750.53588966935</v>
+      </c>
+      <c r="C225">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D225">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E225">
+        <v>51716.22636031974</v>
+      </c>
+      <c r="F225">
+        <v>30869.18110828676</v>
+      </c>
+      <c r="G225">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H225">
+        <v>16034.30123995619</v>
+      </c>
+      <c r="I225">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L225">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>14750.53588966935</v>
+      </c>
+      <c r="C226">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D226">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E226">
+        <v>48322.06806736422</v>
+      </c>
+      <c r="F226">
+        <v>28843.22340740107</v>
+      </c>
+      <c r="G226">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H226">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I226">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L226">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C227">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D227">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E227">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F227">
+        <v>37978.44231278673</v>
+      </c>
+      <c r="G227">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H227">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I227">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L227">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C228">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D228">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E228">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F228">
+        <v>15552.30905869622</v>
+      </c>
+      <c r="G228">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H228">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I228">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L228">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C229">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D229">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E229">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F229">
+        <v>15552.30905869622</v>
+      </c>
+      <c r="G229">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H229">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I229">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L229">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C230">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D230">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E230">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F230">
+        <v>15552.30905869622</v>
+      </c>
+      <c r="G230">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H230">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I230">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L230">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C231">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D231">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E231">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F231">
+        <v>15552.30905869622</v>
+      </c>
+      <c r="G231">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H231">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I231">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L231">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C232">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D232">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E232">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F232">
+        <v>15552.30905869622</v>
+      </c>
+      <c r="G232">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H232">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I232">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L232">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C233">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D233">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E233">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F233">
+        <v>15552.30905869622</v>
+      </c>
+      <c r="G233">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H233">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I233">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L233">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C234">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D234">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E234">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F234">
+        <v>15552.30905869622</v>
+      </c>
+      <c r="G234">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H234">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I234">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L234">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C235">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D235">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E235">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F235">
+        <v>15552.30905869622</v>
+      </c>
+      <c r="G235">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H235">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I235">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L235">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C236">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D236">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E236">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F236">
+        <v>15552.30905869622</v>
+      </c>
+      <c r="G236">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H236">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I236">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L236">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C237">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D237">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E237">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F237">
+        <v>15552.30905869622</v>
+      </c>
+      <c r="G237">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H237">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I237">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L237">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C238">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D238">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E238">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F238">
+        <v>12673.45953756746</v>
+      </c>
+      <c r="G238">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H238">
+        <v>6891.134408753793</v>
+      </c>
+      <c r="I238">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L238">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C239">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D239">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E239">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F239">
+        <v>12673.45953756746</v>
+      </c>
+      <c r="G239">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H239">
+        <v>6891.134408753793</v>
+      </c>
+      <c r="I239">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L239">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C240">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D240">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E240">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F240">
+        <v>12673.45953756746</v>
+      </c>
+      <c r="G240">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H240">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I240">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L240">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C241">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D241">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E241">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F241">
+        <v>12673.45953756746</v>
+      </c>
+      <c r="G241">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H241">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I241">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L241">
+        <v>184.4838555094719</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C242">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D242">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E242">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F242">
+        <v>12673.45953756746</v>
+      </c>
+      <c r="G242">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H242">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I242">
+        <v>4020.022483399977</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L242">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>10643.96694837592</v>
+      </c>
+      <c r="C243">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D243">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E243">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F243">
+        <v>5025.161604086123</v>
+      </c>
+      <c r="G243">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H243">
+        <v>6891.134408753791</v>
+      </c>
+      <c r="I243">
+        <v>4020.022483399976</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L243">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>3082.845137926537</v>
+      </c>
+      <c r="C244">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D244">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E244">
+        <v>27215.59114589523</v>
+      </c>
+      <c r="F244">
+        <v>3971.337716707161</v>
+      </c>
+      <c r="G244">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H244">
+        <v>6891.134408753793</v>
+      </c>
+      <c r="I244">
+        <v>3390.835250398914</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L244">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>2518.67585466613</v>
+      </c>
+      <c r="C245">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D245">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E245">
+        <v>8182.35430519307</v>
+      </c>
+      <c r="F245">
+        <v>3244.571806329119</v>
+      </c>
+      <c r="G245">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H245">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I245">
+        <v>1772.557472006932</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L245">
+        <v>184.4838555094719</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>918.2847218835134</v>
+      </c>
+      <c r="C246">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D246">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E246">
+        <v>8182.35430519307</v>
+      </c>
+      <c r="F246">
+        <v>1182.939326347325</v>
+      </c>
+      <c r="G246">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H246">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I246">
+        <v>1076.754800438821</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>24714.16020400021</v>
+      </c>
+      <c r="L246">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>1326.059911681408</v>
+      </c>
+      <c r="C247">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D247">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E247">
+        <v>8182.35430519307</v>
+      </c>
+      <c r="F247">
+        <v>1708.237522892801</v>
+      </c>
+      <c r="G247">
+        <v>8728.487267014078</v>
+      </c>
+      <c r="H247">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I247">
+        <v>995.0929816728444</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>2273.982131261736</v>
+      </c>
+      <c r="L247">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>1498.56287650181</v>
+      </c>
+      <c r="C248">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D248">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E248">
+        <v>8182.35430519307</v>
+      </c>
+      <c r="F248">
+        <v>1930.456771601426</v>
+      </c>
+      <c r="G248">
+        <v>6534.555279918395</v>
+      </c>
+      <c r="H248">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I248">
+        <v>1376.980872148701</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>2569.797317390002</v>
+      </c>
+      <c r="L248">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>1669.642860613361</v>
+      </c>
+      <c r="C249">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D249">
+        <v>11478.5001677847</v>
+      </c>
+      <c r="E249">
+        <v>8182.35430519307</v>
+      </c>
+      <c r="F249">
+        <v>2150.842928894045</v>
+      </c>
+      <c r="G249">
+        <v>956.9199265427668</v>
+      </c>
+      <c r="H249">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I249">
+        <v>986.7989635113909</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>2863.172317613729</v>
+      </c>
+      <c r="L249">
+        <v>184.483855509472</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>1056.89763759953</v>
+      </c>
+      <c r="C250">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D250">
+        <v>999.7926532299369</v>
+      </c>
+      <c r="E250">
+        <v>8182.35430519307</v>
+      </c>
+      <c r="F250">
+        <v>1361.501231203827</v>
+      </c>
+      <c r="G250">
+        <v>605.7381692773686</v>
+      </c>
+      <c r="H250">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I250">
+        <v>948.4583049573963</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>1812.411582088075</v>
+      </c>
+      <c r="L250">
+        <v>21.74574456394068</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>623.0216977996739</v>
+      </c>
+      <c r="C251">
+        <v>7629.644378218549</v>
+      </c>
+      <c r="D251">
+        <v>589.3593609289311</v>
+      </c>
+      <c r="E251">
+        <v>8182.35430519307</v>
+      </c>
+      <c r="F251">
+        <v>802.5799078778559</v>
+      </c>
+      <c r="G251">
+        <v>357.0714979573536</v>
+      </c>
+      <c r="H251">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I251">
+        <v>946.4691723650382</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>1068.383257577269</v>
+      </c>
+      <c r="L251">
+        <v>12.81871603849479</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>867.7245145860809</v>
+      </c>
+      <c r="C252">
+        <v>715.9351178018781</v>
+      </c>
+      <c r="D252">
+        <v>820.8406981409101</v>
+      </c>
+      <c r="E252">
+        <v>1872.702099183829</v>
+      </c>
+      <c r="F252">
+        <v>1117.807394893942</v>
+      </c>
+      <c r="G252">
+        <v>497.3176589705149</v>
+      </c>
+      <c r="H252">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I252">
+        <v>1135.66176050044</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>1488.009722369603</v>
+      </c>
+      <c r="L252">
+        <v>17.85349401377706</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>2214.385599074307</v>
+      </c>
+      <c r="C253">
+        <v>1827.027343451612</v>
+      </c>
+      <c r="D253">
+        <v>2094.740658519237</v>
+      </c>
+      <c r="E253">
+        <v>4779.033541269754</v>
+      </c>
+      <c r="F253">
+        <v>2852.583459593337</v>
+      </c>
+      <c r="G253">
+        <v>1269.127521094609</v>
+      </c>
+      <c r="H253">
+        <v>6891.134408753792</v>
+      </c>
+      <c r="I253">
+        <v>1108.626942979105</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>3797.319592923556</v>
+      </c>
+      <c r="L253">
+        <v>45.56114224354479</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>1956.744421409385</v>
+      </c>
+      <c r="C254">
+        <v>1614.454846326601</v>
+      </c>
+      <c r="D254">
+        <v>1851.020029921805</v>
+      </c>
+      <c r="E254">
+        <v>4222.998571485079</v>
+      </c>
+      <c r="F254">
+        <v>2520.688706383085</v>
+      </c>
+      <c r="G254">
+        <v>1121.466016576847</v>
+      </c>
+      <c r="H254">
+        <v>7383.730974276052</v>
+      </c>
+      <c r="I254">
+        <v>1155.445703944745</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>3355.505894216388</v>
+      </c>
+      <c r="L254">
+        <v>40.26015656684377</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>1260.919017009566</v>
+      </c>
+      <c r="C255">
+        <v>1040.348854742213</v>
+      </c>
+      <c r="D255">
+        <v>1192.790602112931</v>
+      </c>
+      <c r="E255">
+        <v>2721.284981998021</v>
+      </c>
+      <c r="F255">
+        <v>1624.322671404565</v>
+      </c>
+      <c r="G255">
+        <v>722.6686386631897</v>
+      </c>
+      <c r="H255">
+        <v>1385.610469181075</v>
+      </c>
+      <c r="I255">
+        <v>1177.61762919016</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>2162.275843187355</v>
+      </c>
+      <c r="L255">
+        <v>25.94349905254948</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>1322.095025261875</v>
+      </c>
+      <c r="C256">
+        <v>1090.823460378609</v>
+      </c>
+      <c r="D256">
+        <v>1250.661224043272</v>
+      </c>
+      <c r="E256">
+        <v>2853.313566125824</v>
+      </c>
+      <c r="F256">
+        <v>1703.129934844787</v>
+      </c>
+      <c r="G256">
+        <v>757.7303531794747</v>
+      </c>
+      <c r="H256">
+        <v>2309.098642213988</v>
+      </c>
+      <c r="I256">
+        <v>1213.508944526315</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>2267.182980792684</v>
+      </c>
+      <c r="L256">
+        <v>27.20219980233799</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>2257.412947852617</v>
+      </c>
+      <c r="C257">
+        <v>1862.528000052279</v>
+      </c>
+      <c r="D257">
+        <v>2135.443206870297</v>
+      </c>
+      <c r="E257">
+        <v>4871.894126657146</v>
+      </c>
+      <c r="F257">
+        <v>2908.011522116174</v>
+      </c>
+      <c r="G257">
+        <v>1293.787721430592</v>
+      </c>
+      <c r="H257">
+        <v>3045.073804766491</v>
+      </c>
+      <c r="I257">
+        <v>1517.549650976296</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>3871.104662071284</v>
+      </c>
+      <c r="L257">
+        <v>46.44643302527254</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>3252.587276927203</v>
+      </c>
+      <c r="C258">
+        <v>2683.618379018101</v>
+      </c>
+      <c r="D258">
+        <v>3076.847508947852</v>
+      </c>
+      <c r="E258">
+        <v>7019.655338636774</v>
+      </c>
+      <c r="F258">
+        <v>4190.000454719776</v>
+      </c>
+      <c r="G258">
+        <v>1864.150502801371</v>
+      </c>
+      <c r="H258">
+        <v>2813.339360424975</v>
+      </c>
+      <c r="I258">
+        <v>1887.732851210742</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>5577.670573513823</v>
+      </c>
+      <c r="L258">
+        <v>66.92221609713036</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>2636.874470212862</v>
+      </c>
+      <c r="C259">
+        <v>2175.611040977835</v>
+      </c>
+      <c r="D259">
+        <v>2494.402134151931</v>
+      </c>
+      <c r="E259">
+        <v>5690.83882343398</v>
+      </c>
+      <c r="F259">
+        <v>3396.835899717547</v>
+      </c>
+      <c r="G259">
+        <v>1511.267938708543</v>
+      </c>
+      <c r="H259">
+        <v>1515.141033815968</v>
+      </c>
+      <c r="I259">
+        <v>1684.191918463109</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>4521.82090328127</v>
+      </c>
+      <c r="L259">
+        <v>54.25388101600843</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>2971.287099021109</v>
+      </c>
+      <c r="C260">
+        <v>2451.525505506332</v>
+      </c>
+      <c r="D260">
+        <v>2810.746193912694</v>
+      </c>
+      <c r="E260">
+        <v>6412.560085696025</v>
+      </c>
+      <c r="F260">
+        <v>3827.628049926758</v>
+      </c>
+      <c r="G260">
+        <v>1702.929350704521</v>
+      </c>
+      <c r="H260">
+        <v>1594.220096041088</v>
+      </c>
+      <c r="I260">
+        <v>1534.526309605165</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>5095.285447137355</v>
+      </c>
+      <c r="L260">
+        <v>61.13444479656208</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>2160.577286281069</v>
+      </c>
+      <c r="C261">
+        <v>1782.631616339161</v>
+      </c>
+      <c r="D261">
+        <v>2043.839649850541</v>
+      </c>
+      <c r="E261">
+        <v>4662.905739614288</v>
+      </c>
+      <c r="F261">
+        <v>2783.267301139822</v>
+      </c>
+      <c r="G261">
+        <v>1238.288442906008</v>
+      </c>
+      <c r="H261">
+        <v>2569.967696646327</v>
+      </c>
+      <c r="I261">
+        <v>1552.985869138364</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>3705.046882824041</v>
+      </c>
+      <c r="L261">
+        <v>44.45403235532897</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>6220.774979594944</v>
+      </c>
+      <c r="C262">
+        <v>4719.225002102408</v>
+      </c>
+      <c r="D262">
+        <v>5938.877471425775</v>
+      </c>
+      <c r="E262">
+        <v>11853.19763921182</v>
+      </c>
+      <c r="F262">
+        <v>6283.357946458158</v>
+      </c>
+      <c r="G262">
+        <v>3613.253478845031</v>
+      </c>
+      <c r="H262">
+        <v>2502.040887562219</v>
+      </c>
+      <c r="I262">
+        <v>443.1142127774978</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>8780.972425062035</v>
+      </c>
+      <c r="L262">
+        <v>801.8286898612012</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>3817.356909735575</v>
+      </c>
+      <c r="C263">
+        <v>2895.935993419509</v>
+      </c>
+      <c r="D263">
+        <v>3644.371485222296</v>
+      </c>
+      <c r="E263">
+        <v>7273.673466557845</v>
+      </c>
+      <c r="F263">
+        <v>3855.760729480008</v>
+      </c>
+      <c r="G263">
+        <v>2217.260418410649</v>
+      </c>
+      <c r="H263">
+        <v>7560.215642412398</v>
+      </c>
+      <c r="I263">
+        <v>2996.420597418318</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>5388.413159286259</v>
+      </c>
+      <c r="L263">
+        <v>492.039384113068</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>4055.508204225877</v>
+      </c>
+      <c r="C264">
+        <v>3076.603120413849</v>
+      </c>
+      <c r="D264">
+        <v>3871.730835508815</v>
+      </c>
+      <c r="E264">
+        <v>7727.452034483396</v>
+      </c>
+      <c r="F264">
+        <v>4096.307901432589</v>
+      </c>
+      <c r="G264">
+        <v>2355.587394732908</v>
+      </c>
+      <c r="H264">
+        <v>2750.461220216111</v>
+      </c>
+      <c r="I264">
+        <v>1077.605060341675</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>5724.577054744882</v>
+      </c>
+      <c r="L264">
+        <v>522.7359679111115</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>3605.343860973139</v>
+      </c>
+      <c r="C265">
+        <v>2735.097949321539</v>
+      </c>
+      <c r="D265">
+        <v>3441.965913075156</v>
+      </c>
+      <c r="E265">
+        <v>6869.699270848127</v>
+      </c>
+      <c r="F265">
+        <v>3641.614762287185</v>
+      </c>
+      <c r="G265">
+        <v>2094.115490565776</v>
+      </c>
+      <c r="H265">
+        <v>3329.042355819859</v>
+      </c>
+      <c r="I265">
+        <v>1286.863243171287</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>5089.144862162048</v>
+      </c>
+      <c r="L265">
+        <v>464.7118974767113</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>2168.059105034627</v>
+      </c>
+      <c r="C266">
+        <v>1644.740208105293</v>
+      </c>
+      <c r="D266">
+        <v>2069.812429776727</v>
+      </c>
+      <c r="E266">
+        <v>4131.066169370019</v>
+      </c>
+      <c r="F266">
+        <v>2189.870466412098</v>
+      </c>
+      <c r="G266">
+        <v>1259.287971242145</v>
+      </c>
+      <c r="H266">
+        <v>3607.958006752881</v>
+      </c>
+      <c r="I266">
+        <v>1638.382132573301</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>3060.336900090436</v>
+      </c>
+      <c r="L266">
+        <v>279.4526401346794</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>3588.793888800079</v>
+      </c>
+      <c r="C267">
+        <v>2722.542754394959</v>
+      </c>
+      <c r="D267">
+        <v>3426.165911111781</v>
+      </c>
+      <c r="E267">
+        <v>6838.164600050001</v>
+      </c>
+      <c r="F267">
+        <v>3624.898292151493</v>
+      </c>
+      <c r="G267">
+        <v>2084.502661822532</v>
+      </c>
+      <c r="H267">
+        <v>3666.716688233941</v>
+      </c>
+      <c r="I267">
+        <v>1609.100025797076</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>5065.783649167866</v>
+      </c>
+      <c r="L267">
+        <v>462.5786837616529</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>5114.833926939415</v>
+      </c>
+      <c r="C268">
+        <v>3880.232322948586</v>
+      </c>
+      <c r="D268">
+        <v>4883.052686911789</v>
+      </c>
+      <c r="E268">
+        <v>9745.913913720515</v>
+      </c>
+      <c r="F268">
+        <v>5166.29077648155</v>
+      </c>
+      <c r="G268">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H268">
+        <v>3681.384488127228</v>
+      </c>
+      <c r="I268">
+        <v>1344.579942737093</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>7219.87466490087</v>
+      </c>
+      <c r="L268">
+        <v>659.2780802951497</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>6007.767402458472</v>
+      </c>
+      <c r="C269">
+        <v>4557.632485582038</v>
+      </c>
+      <c r="D269">
+        <v>5735.522438451869</v>
+      </c>
+      <c r="E269">
+        <v>11447.32844787633</v>
+      </c>
+      <c r="F269">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G269">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H269">
+        <v>4308.367322134304</v>
+      </c>
+      <c r="I269">
+        <v>1216.804745809372</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>8480.300295415829</v>
+      </c>
+      <c r="L269">
+        <v>774.3730131864972</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>6080.520978128333</v>
+      </c>
+      <c r="C270">
+        <v>4612.825045097496</v>
+      </c>
+      <c r="D270">
+        <v>5804.979149702263</v>
+      </c>
+      <c r="E270">
+        <v>11585.95466634636</v>
+      </c>
+      <c r="F270">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G270">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H270">
+        <v>3858.797797373265</v>
+      </c>
+      <c r="I270">
+        <v>1121.219127169708</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>8582.996043755422</v>
+      </c>
+      <c r="L270">
+        <v>783.7506075301977</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>8151.537064511836</v>
+      </c>
+      <c r="C271">
+        <v>5591.612541153288</v>
+      </c>
+      <c r="D271">
+        <v>7782.146113421023</v>
+      </c>
+      <c r="E271">
+        <v>15532.1129933092</v>
+      </c>
+      <c r="F271">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G271">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H271">
+        <v>3568.037096108926</v>
+      </c>
+      <c r="I271">
+        <v>1274.59522894578</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>11506.35128583453</v>
+      </c>
+      <c r="L271">
+        <v>1050.694858153853</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>6278.814635474581</v>
+      </c>
+      <c r="C272">
+        <v>5355.588853381179</v>
+      </c>
+      <c r="D272">
+        <v>5994.287031469904</v>
+      </c>
+      <c r="E272">
+        <v>11963.78764034669</v>
+      </c>
+      <c r="F272">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G272">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H272">
+        <v>4723.52729644986</v>
+      </c>
+      <c r="I272">
+        <v>2185.170238648892</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>8862.89865121728</v>
+      </c>
+      <c r="L272">
+        <v>809.3097290221764</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>5707.266829134374</v>
+      </c>
+      <c r="C273">
+        <v>4329.665741337332</v>
+      </c>
+      <c r="D273">
+        <v>5448.639197871896</v>
+      </c>
+      <c r="E273">
+        <v>10874.74823110422</v>
+      </c>
+      <c r="F273">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G273">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H273">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I273">
+        <v>2401.695106107526</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>8056.126899539991</v>
+      </c>
+      <c r="L273">
+        <v>735.6399000613075</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>6003.177271501383</v>
+      </c>
+      <c r="C274">
+        <v>4554.15030517097</v>
+      </c>
+      <c r="D274">
+        <v>5731.1403115591</v>
+      </c>
+      <c r="E274">
+        <v>11438.58231421892</v>
+      </c>
+      <c r="F274">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G274">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H274">
+        <v>7184.32699608728</v>
+      </c>
+      <c r="I274">
+        <v>2073.796930050949</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>8473.821068391251</v>
+      </c>
+      <c r="L274">
+        <v>773.7813668556645</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C275">
+        <v>5591.612541153288</v>
+      </c>
+      <c r="D275">
+        <v>8810.07135671771</v>
+      </c>
+      <c r="E275">
+        <v>17583.71300118163</v>
+      </c>
+      <c r="F275">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G275">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H275">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I275">
+        <v>1906.088868223069</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>12462.99629671648</v>
+      </c>
+      <c r="L275">
+        <v>1073.620390123342</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C276">
+        <v>5591.612541153288</v>
+      </c>
+      <c r="D276">
+        <v>9361.221194081085</v>
+      </c>
+      <c r="E276">
+        <v>18683.7336671273</v>
+      </c>
+      <c r="F276">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G276">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H276">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I276">
+        <v>2122.932799770793</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>12462.99629671648</v>
+      </c>
+      <c r="L276">
+        <v>1073.620390123342</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C277">
+        <v>5591.612541153288</v>
+      </c>
+      <c r="D277">
+        <v>10775.82044536587</v>
+      </c>
+      <c r="E277">
+        <v>21507.08279100376</v>
+      </c>
+      <c r="F277">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G277">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H277">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I277">
+        <v>2813.367547055771</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>12462.99629671648</v>
+      </c>
+      <c r="L277">
+        <v>1073.620390123342</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C278">
+        <v>5591.612541153288</v>
+      </c>
+      <c r="D278">
+        <v>10068.6425454705</v>
+      </c>
+      <c r="E278">
+        <v>20095.65117722268</v>
+      </c>
+      <c r="F278">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G278">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H278">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I278">
+        <v>2735.755207384653</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>20298.05301337898</v>
+      </c>
+      <c r="L278">
+        <v>1073.620390123342</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C279">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D279">
+        <v>6998.67051529266</v>
+      </c>
+      <c r="E279">
+        <v>13968.40147462624</v>
+      </c>
+      <c r="F279">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G279">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H279">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I279">
+        <v>2780.444121362807</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>10347.93748525102</v>
+      </c>
+      <c r="L279">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C280">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D280">
+        <v>5394.335724226625</v>
+      </c>
+      <c r="E280">
+        <v>21186.3912235652</v>
+      </c>
+      <c r="F280">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G280">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H280">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I280">
+        <v>2913.035191885229</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>15695.09956581411</v>
+      </c>
+      <c r="L280">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C281">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D281">
+        <v>5394.335724226625</v>
+      </c>
+      <c r="E281">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F281">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G281">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H281">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I281">
+        <v>1912.310617960322</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L281">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C282">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D282">
+        <v>5394.335724226625</v>
+      </c>
+      <c r="E282">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F282">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G282">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H282">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I282">
+        <v>3545.858929583911</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L282">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C283">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D283">
+        <v>5394.335724226625</v>
+      </c>
+      <c r="E283">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F283">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G283">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H283">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I283">
+        <v>3940.042670148916</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L283">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C284">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D284">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E284">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F284">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G284">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H284">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I284">
+        <v>4868.222529222214</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L284">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C285">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D285">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E285">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F285">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G285">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H285">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I285">
+        <v>3645.045495874526</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L285">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>6263.907615663679</v>
+      </c>
+      <c r="C286">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D286">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E286">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F286">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G286">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H286">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I286">
+        <v>3325.445468539494</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L286">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>6263.907615663679</v>
+      </c>
+      <c r="C287">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D287">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E287">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F287">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G287">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H287">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I287">
+        <v>2947.813177596028</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L287">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C288">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D288">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E288">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F288">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G288">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H288">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I288">
+        <v>2415.75386753305</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L288">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C289">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D289">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E289">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F289">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G289">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H289">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I289">
+        <v>2115.115729588091</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>26728.3189770765</v>
+      </c>
+      <c r="L289">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C290">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D290">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E290">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F290">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G290">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H290">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I290">
+        <v>1836.592721318175</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L290">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C291">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D291">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E291">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F291">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G291">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H291">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I291">
+        <v>1200.781746085388</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L291">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C292">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D292">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E292">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F292">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G292">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H292">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I292">
+        <v>1015.389557119701</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L292">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C293">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D293">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E293">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F293">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G293">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H293">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I293">
+        <v>1003.408700574376</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L293">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C294">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D294">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E294">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F294">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G294">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H294">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I294">
+        <v>899.9641345903159</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>4499.614830558239</v>
+      </c>
+      <c r="L294">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C295">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D295">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E295">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F295">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G295">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H295">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I295">
+        <v>737.0220925932169</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>4229.783384468587</v>
+      </c>
+      <c r="L295">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C296">
+        <v>7071.101681995451</v>
+      </c>
+      <c r="D296">
+        <v>7388.02660554389</v>
+      </c>
+      <c r="E296">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F296">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G296">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H296">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I296">
+        <v>534.5141093984136</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>3582.238636920356</v>
+      </c>
+      <c r="L296">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C297">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D297">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E297">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F297">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G297">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H297">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I297">
+        <v>697.5119876111032</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>1877.294837672376</v>
+      </c>
+      <c r="L297">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C298">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D298">
+        <v>7388.02660554389</v>
+      </c>
+      <c r="E298">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F298">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G298">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H298">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I298">
+        <v>423.7111278597182</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>1813.528445038801</v>
+      </c>
+      <c r="L298">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C299">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D299">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E299">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F299">
+        <v>9788.303664450585</v>
+      </c>
+      <c r="G299">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H299">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I299">
+        <v>391.5714033355812</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>1790.422801555035</v>
+      </c>
+      <c r="L299">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C300">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D300">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E300">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F300">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G300">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H300">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I300">
+        <v>541.8485951463678</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>1711.444623695974</v>
+      </c>
+      <c r="L300">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C301">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D301">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E301">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F301">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G301">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H301">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I301">
+        <v>517.284648587559</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>2122.814347057127</v>
+      </c>
+      <c r="L301">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C302">
+        <v>7071.101681995453</v>
+      </c>
+      <c r="D302">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E302">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F302">
+        <v>9788.303664450581</v>
+      </c>
+      <c r="G302">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H302">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I302">
+        <v>486.5069288937244</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>798.9534844009587</v>
+      </c>
+      <c r="L302">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>6814.20730277283</v>
+      </c>
+      <c r="C303">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D303">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E303">
+        <v>3056.814749778842</v>
+      </c>
+      <c r="F303">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G303">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H303">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I303">
+        <v>544.887680594949</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>646.846430857805</v>
+      </c>
+      <c r="L303">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>623.3474341909556</v>
+      </c>
+      <c r="C304">
+        <v>3288.592428288028</v>
+      </c>
+      <c r="D304">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E304">
+        <v>1187.739527566401</v>
+      </c>
+      <c r="F304">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G304">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H304">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I304">
+        <v>498.6193993757998</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>879.8898286496704</v>
+      </c>
+      <c r="L304">
+        <v>918.4094246032741</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>1071.186111092103</v>
+      </c>
+      <c r="C305">
+        <v>812.6267698080057</v>
+      </c>
+      <c r="D305">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E305">
+        <v>2041.060916815248</v>
+      </c>
+      <c r="F305">
+        <v>7199.616100912757</v>
+      </c>
+      <c r="G305">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H305">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I305">
+        <v>500.2845150907377</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>1512.039212873387</v>
+      </c>
+      <c r="L305">
+        <v>138.0708607644289</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>2105.969933621737</v>
+      </c>
+      <c r="C306">
+        <v>1597.637914411555</v>
+      </c>
+      <c r="D306">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E306">
+        <v>4012.760134764052</v>
+      </c>
+      <c r="F306">
+        <v>2127.156658266671</v>
+      </c>
+      <c r="G306">
+        <v>1223.224311112641</v>
+      </c>
+      <c r="H306">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I306">
+        <v>646.4278327972531</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>2972.694555871285</v>
+      </c>
+      <c r="L306">
+        <v>271.4496374329473</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>1270.803256197644</v>
+      </c>
+      <c r="C307">
+        <v>964.0609922514149</v>
+      </c>
+      <c r="D307">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E307">
+        <v>2421.415692686802</v>
+      </c>
+      <c r="F307">
+        <v>1283.587939510118</v>
+      </c>
+      <c r="G307">
+        <v>738.1289793386347</v>
+      </c>
+      <c r="H307">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I307">
+        <v>665.9286310923167</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>1793.809997460663</v>
+      </c>
+      <c r="L307">
+        <v>163.8005736151308</v>
+      </c>
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>1427.456775544832</v>
+      </c>
+      <c r="C308">
+        <v>1082.90200604721</v>
+      </c>
+      <c r="D308">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E308">
+        <v>2719.906657524951</v>
+      </c>
+      <c r="F308">
+        <v>1441.817442885417</v>
+      </c>
+      <c r="G308">
+        <v>829.119069096133</v>
+      </c>
+      <c r="H308">
+        <v>5709.863402013179</v>
+      </c>
+      <c r="I308">
+        <v>638.066359512541</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>2014.93521709787</v>
+      </c>
+      <c r="L308">
+        <v>183.9924768092375</v>
+      </c>
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>1496.499995357713</v>
+      </c>
+      <c r="C309">
+        <v>1135.279803063719</v>
+      </c>
+      <c r="D309">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E309">
+        <v>2851.463084621903</v>
+      </c>
+      <c r="F309">
+        <v>1511.555259360587</v>
+      </c>
+      <c r="G309">
+        <v>869.2218947083527</v>
+      </c>
+      <c r="H309">
+        <v>2124.748915118279</v>
+      </c>
+      <c r="I309">
+        <v>534.5759280656748</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>2112.393590259261</v>
+      </c>
+      <c r="L309">
+        <v>192.8918237021814</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>1243.785235369668</v>
+      </c>
+      <c r="C310">
+        <v>943.5644914429233</v>
+      </c>
+      <c r="D310">
+        <v>3294.762242365524</v>
+      </c>
+      <c r="E310">
+        <v>2369.934978186629</v>
+      </c>
+      <c r="F310">
+        <v>1256.298108834055</v>
+      </c>
+      <c r="G310">
+        <v>722.435925327131</v>
+      </c>
+      <c r="H310">
+        <v>1933.006069356215</v>
+      </c>
+      <c r="I310">
+        <v>354.153162287563</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>1755.672547279871</v>
+      </c>
+      <c r="L310">
+        <v>160.3180775733676</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>1098.94875316423</v>
+      </c>
+      <c r="C311">
+        <v>833.6881576609599</v>
+      </c>
+      <c r="D311">
+        <v>1049.149344547334</v>
+      </c>
+      <c r="E311">
+        <v>2093.960448553181</v>
+      </c>
+      <c r="F311">
+        <v>1110.004525737461</v>
+      </c>
+      <c r="G311">
+        <v>638.3096026568727</v>
+      </c>
+      <c r="H311">
+        <v>1651.713826591577</v>
+      </c>
+      <c r="I311">
+        <v>1394.665028121981</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>1551.227737660388</v>
+      </c>
+      <c r="L311">
+        <v>141.6493349887495</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>6134.021504505959</v>
+      </c>
+      <c r="C312">
+        <v>4653.411792333188</v>
+      </c>
+      <c r="D312">
+        <v>5856.055273152432</v>
+      </c>
+      <c r="E312">
+        <v>11687.89571308668</v>
+      </c>
+      <c r="F312">
+        <v>6195.731703928691</v>
+      </c>
+      <c r="G312">
+        <v>3562.863889654718</v>
+      </c>
+      <c r="H312">
+        <v>2510.76283378107</v>
+      </c>
+      <c r="I312">
+        <v>624.9548196015029</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>8658.515034297472</v>
+      </c>
+      <c r="L312">
+        <v>790.6465742084604</v>
+      </c>
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>4882.930310696259</v>
+      </c>
+      <c r="C313">
+        <v>3704.304830402645</v>
+      </c>
+      <c r="D313">
+        <v>4661.657898229315</v>
+      </c>
+      <c r="E313">
+        <v>9304.039805495329</v>
+      </c>
+      <c r="F313">
+        <v>4932.054136398372</v>
+      </c>
+      <c r="G313">
+        <v>2836.184396631225</v>
+      </c>
+      <c r="H313">
+        <v>2270.802876441373</v>
+      </c>
+      <c r="I313">
+        <v>801.1838867586393</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>6892.529717336811</v>
+      </c>
+      <c r="L313">
+        <v>629.3867928918506</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>1830.96049951939</v>
+      </c>
+      <c r="C314">
+        <v>1389.009342973606</v>
+      </c>
+      <c r="D314">
+        <v>1747.989615013244</v>
+      </c>
+      <c r="E314">
+        <v>3488.751279636621</v>
+      </c>
+      <c r="F314">
+        <v>1849.380542141915</v>
+      </c>
+      <c r="G314">
+        <v>1063.488780130582</v>
+      </c>
+      <c r="H314">
+        <v>2284.562589816868</v>
+      </c>
+      <c r="I314">
+        <v>1060.071946309451</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>2584.503331239999</v>
+      </c>
+      <c r="L314">
+        <v>236.0022124788119</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>7879.495194374591</v>
+      </c>
+      <c r="C315">
+        <v>5977.568847484594</v>
+      </c>
+      <c r="D315">
+        <v>7522.43195575705</v>
+      </c>
+      <c r="E315">
+        <v>15013.75859800401</v>
+      </c>
+      <c r="F315">
+        <v>7958.765412034917</v>
+      </c>
+      <c r="G315">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H315">
+        <v>8165.241267420788</v>
+      </c>
+      <c r="I315">
+        <v>2142.674406628211</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>11122.34894400846</v>
+      </c>
+      <c r="L315">
+        <v>1015.629938262836</v>
+      </c>
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>3456.908484441626</v>
+      </c>
+      <c r="C316">
+        <v>2622.491410357865</v>
+      </c>
+      <c r="D316">
+        <v>3300.256959361642</v>
+      </c>
+      <c r="E316">
+        <v>6586.867331025508</v>
+      </c>
+      <c r="F316">
+        <v>3491.686078847566</v>
+      </c>
+      <c r="G316">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H316">
+        <v>2845.81854937439</v>
+      </c>
+      <c r="I316">
+        <v>729.0096163646039</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>4879.620011560268</v>
+      </c>
+      <c r="L316">
+        <v>445.5792743093858</v>
+      </c>
+      <c r="M316">
+        <v>0</v>
+      </c>
+      <c r="N316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>4422.427441568037</v>
+      </c>
+      <c r="C317">
+        <v>3354.956612430083</v>
+      </c>
+      <c r="D317">
+        <v>4222.022945355548</v>
+      </c>
+      <c r="E317">
+        <v>8426.587793630993</v>
+      </c>
+      <c r="F317">
+        <v>4466.91846253222</v>
+      </c>
+      <c r="G317">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H317">
+        <v>3405.374270402777</v>
+      </c>
+      <c r="I317">
+        <v>1084.215419261292</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>6242.504116227516</v>
+      </c>
+      <c r="L317">
+        <v>570.030135008937</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>2348.082127815723</v>
+      </c>
+      <c r="C318">
+        <v>1781.309872311008</v>
+      </c>
+      <c r="D318">
+        <v>2241.677619859881</v>
+      </c>
+      <c r="E318">
+        <v>4474.085885664533</v>
+      </c>
+      <c r="F318">
+        <v>2371.704577828658</v>
+      </c>
+      <c r="G318">
+        <v>2274.452703166441</v>
+      </c>
+      <c r="H318">
+        <v>3020.161927199678</v>
+      </c>
+      <c r="I318">
+        <v>1021.671798476755</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>3314.449483185356</v>
+      </c>
+      <c r="L318">
+        <v>302.6567626073457</v>
+      </c>
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>5431.722446425973</v>
+      </c>
+      <c r="C319">
+        <v>4120.631345408897</v>
+      </c>
+      <c r="D319">
+        <v>5185.581245733689</v>
+      </c>
+      <c r="E319">
+        <v>10349.72007346622</v>
+      </c>
+      <c r="F319">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G319">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H319">
+        <v>3048.192886734055</v>
+      </c>
+      <c r="I319">
+        <v>999.8185575193557</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>7667.180564978836</v>
+      </c>
+      <c r="L319">
+        <v>700.123522743304</v>
+      </c>
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>3375.80675775814</v>
+      </c>
+      <c r="C320">
+        <v>2560.965748758817</v>
+      </c>
+      <c r="D320">
+        <v>3222.830397707479</v>
+      </c>
+      <c r="E320">
+        <v>6432.334367140147</v>
+      </c>
+      <c r="F320">
+        <v>3685.683338640847</v>
+      </c>
+      <c r="G320">
+        <v>2368.166771237572</v>
+      </c>
+      <c r="H320">
+        <v>2556.96180899227</v>
+      </c>
+      <c r="I320">
+        <v>835.4757059142058</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>4765.140380329663</v>
+      </c>
+      <c r="L320">
+        <v>435.125642492545</v>
+      </c>
+      <c r="M320">
+        <v>0</v>
+      </c>
+      <c r="N320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>4113.92461870329</v>
+      </c>
+      <c r="C321">
+        <v>3120.919175027503</v>
+      </c>
+      <c r="D321">
+        <v>3927.500081147718</v>
+      </c>
+      <c r="E321">
+        <v>7838.759919505138</v>
+      </c>
+      <c r="F321">
+        <v>4155.31200354434</v>
+      </c>
+      <c r="G321">
+        <v>2389.517783394211</v>
+      </c>
+      <c r="H321">
+        <v>2507.057510542544</v>
+      </c>
+      <c r="I321">
+        <v>756.0773969927413</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>5807.035096770146</v>
+      </c>
+      <c r="L321">
+        <v>530.2655694865509</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>4218.336408225106</v>
+      </c>
+      <c r="C322">
+        <v>3200.128394014185</v>
+      </c>
+      <c r="D322">
+        <v>4027.180398564174</v>
+      </c>
+      <c r="E322">
+        <v>8037.708375465276</v>
+      </c>
+      <c r="F322">
+        <v>4260.774208743496</v>
+      </c>
+      <c r="G322">
+        <v>2450.163967022397</v>
+      </c>
+      <c r="H322">
+        <v>3220.107352374866</v>
+      </c>
+      <c r="I322">
+        <v>913.8635049290632</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>5954.418187727432</v>
+      </c>
+      <c r="L322">
+        <v>543.7237589682404</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>5177.018201971411</v>
+      </c>
+      <c r="C323">
+        <v>3927.406764466115</v>
+      </c>
+      <c r="D323">
+        <v>4942.419050632682</v>
+      </c>
+      <c r="E323">
+        <v>9864.401160795533</v>
+      </c>
+      <c r="F323">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G323">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H323">
+        <v>3720.41074535705</v>
+      </c>
+      <c r="I323">
+        <v>1016.349265380883</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>7307.651253206912</v>
+      </c>
+      <c r="L323">
+        <v>667.2933414068964</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>5693.309359507766</v>
+      </c>
+      <c r="C324">
+        <v>4319.077279313866</v>
+      </c>
+      <c r="D324">
+        <v>5435.314217914339</v>
+      </c>
+      <c r="E324">
+        <v>10848.15337008286</v>
+      </c>
+      <c r="F324">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G324">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H324">
+        <v>5120.041850838415</v>
+      </c>
+      <c r="I324">
+        <v>1621.768120496122</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>8036.425149144438</v>
+      </c>
+      <c r="L324">
+        <v>733.840847753325</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>7064.086671192436</v>
+      </c>
+      <c r="C325">
+        <v>5358.98092200088</v>
+      </c>
+      <c r="D325">
+        <v>6743.974074830712</v>
+      </c>
+      <c r="E325">
+        <v>13460.06176542621</v>
+      </c>
+      <c r="F325">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G325">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H325">
+        <v>6379.189927271613</v>
+      </c>
+      <c r="I325">
+        <v>2127.771313959769</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>9971.354127332219</v>
+      </c>
+      <c r="L325">
+        <v>910.5276077671306</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>5294.069073881412</v>
+      </c>
+      <c r="C326">
+        <v>4016.204286165177</v>
+      </c>
+      <c r="D326">
+        <v>5054.165704140846</v>
+      </c>
+      <c r="E326">
+        <v>10087.43239454732</v>
+      </c>
+      <c r="F326">
+        <v>5210.452399317639</v>
+      </c>
+      <c r="G326">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H326">
+        <v>4876.651720698706</v>
+      </c>
+      <c r="I326">
+        <v>1906.029956896093</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>7472.875117105315</v>
+      </c>
+      <c r="L326">
+        <v>682.3806492710395</v>
+      </c>
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>6618.146625706956</v>
+      </c>
+      <c r="C327">
+        <v>5020.680401728599</v>
+      </c>
+      <c r="D327">
+        <v>5394.335724226625</v>
+      </c>
+      <c r="E327">
+        <v>12610.35806906735</v>
+      </c>
+      <c r="F327">
+        <v>9305.086886690171</v>
+      </c>
+      <c r="G327">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H327">
+        <v>6444.455454131278</v>
+      </c>
+      <c r="I327">
+        <v>2128.781823866378</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>9341.884767729392</v>
+      </c>
+      <c r="L327">
+        <v>853.0480294828909</v>
+      </c>
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>5943.190047767379</v>
+      </c>
+      <c r="C328">
+        <v>4508.64259801538</v>
+      </c>
+      <c r="D328">
+        <v>5394.335724226625</v>
+      </c>
+      <c r="E328">
+        <v>11324.28137565755</v>
+      </c>
+      <c r="F328">
+        <v>6002.980422285223</v>
+      </c>
+      <c r="G328">
+        <v>2747.568107685763</v>
+      </c>
+      <c r="H328">
+        <v>5591.907277379633</v>
+      </c>
+      <c r="I328">
+        <v>2043.104468655</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>8389.145741090051</v>
+      </c>
+      <c r="L328">
+        <v>766.0492953416135</v>
+      </c>
+      <c r="M328">
+        <v>0</v>
+      </c>
+      <c r="N328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C329">
+        <v>5847.889426641937</v>
+      </c>
+      <c r="D329">
+        <v>5394.335724226625</v>
+      </c>
+      <c r="E329">
+        <v>14688.04498945562</v>
+      </c>
+      <c r="F329">
+        <v>7786.105236035511</v>
+      </c>
+      <c r="G329">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H329">
+        <v>7094.458613207592</v>
+      </c>
+      <c r="I329">
+        <v>2336.476321846601</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>10881.0569060128</v>
+      </c>
+      <c r="L329">
+        <v>993.5965153872785</v>
+      </c>
+      <c r="M329">
+        <v>0</v>
+      </c>
+      <c r="N329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>7335.005753677538</v>
+      </c>
+      <c r="C330">
+        <v>5547.45018809711</v>
+      </c>
+      <c r="D330">
+        <v>5394.335724226625</v>
+      </c>
+      <c r="E330">
+        <v>13933.43683420563</v>
+      </c>
+      <c r="F330">
+        <v>7386.088861292311</v>
+      </c>
+      <c r="G330">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H330">
+        <v>7440.493259337822</v>
+      </c>
+      <c r="I330">
+        <v>2845.295058179803</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>10322.03531499023</v>
+      </c>
+      <c r="L330">
+        <v>942.5498285016193</v>
+      </c>
+      <c r="M330">
+        <v>0</v>
+      </c>
+      <c r="N330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C331">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D331">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E331">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F331">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G331">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H331">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I331">
+        <v>4868.222529222214</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>25277.30812197681</v>
+      </c>
+      <c r="L331">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>7686.071547738545</v>
+      </c>
+      <c r="C332">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D332">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E332">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F332">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G332">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H332">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I332">
+        <v>4868.222529222214</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L332">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>6263.907615663679</v>
+      </c>
+      <c r="C333">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D333">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E333">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F333">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G333">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H333">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I333">
+        <v>4868.222529222214</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L333">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M333">
+        <v>0</v>
+      </c>
+      <c r="N333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>6263.907615663679</v>
+      </c>
+      <c r="C334">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D334">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E334">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F334">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G334">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H334">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I334">
+        <v>4868.222529222214</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L334">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C335">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D335">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E335">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F335">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G335">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H335">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I335">
+        <v>4323.476538939802</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L335">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C336">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D336">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E336">
+        <v>26398.27150714043</v>
+      </c>
+      <c r="F336">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G336">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H336">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I336">
+        <v>3732.399335123968</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>26728.31897707651</v>
+      </c>
+      <c r="L336">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M336">
+        <v>0</v>
+      </c>
+      <c r="N336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C337">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D337">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E337">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F337">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G337">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H337">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I337">
+        <v>4092.47255596775</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L337">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C338">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D338">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E338">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F338">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G338">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H338">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I338">
+        <v>4678.923137339874</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L338">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C339">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D339">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E339">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F339">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G339">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H339">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I339">
+        <v>4203.852346360934</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L339">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C340">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D340">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E340">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F340">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G340">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H340">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I340">
+        <v>2750.947373693411</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L340">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C341">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D341">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E341">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F341">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G341">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H341">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I341">
+        <v>2345.771470224174</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L341">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C342">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D342">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E342">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F342">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G342">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H342">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I342">
+        <v>1998.456901178323</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L342">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C343">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D343">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E343">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F343">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G343">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H343">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I343">
+        <v>1671.607086195295</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L343">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C344">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D344">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E344">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F344">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G344">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H344">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I344">
+        <v>1148.155240756485</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L344">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C345">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D345">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E345">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F345">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G345">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H345">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I345">
+        <v>966.008901636447</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>7106.172039212903</v>
+      </c>
+      <c r="L345">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C346">
+        <v>7071.101681995453</v>
+      </c>
+      <c r="D346">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E346">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F346">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G346">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H346">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I346">
+        <v>794.075655007619</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L346">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C347">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D347">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E347">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F347">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G347">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H347">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I347">
+        <v>564.325814088675</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>7106.172039212905</v>
+      </c>
+      <c r="L347">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C348">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D348">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E348">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F348">
+        <v>9788.303664450585</v>
+      </c>
+      <c r="G348">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H348">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I348">
+        <v>504.013028914756</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>7106.172039212903</v>
+      </c>
+      <c r="L348">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C349">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D349">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E349">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F349">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G349">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H349">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I349">
+        <v>612.4415132753581</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L349">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C350">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D350">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E350">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F350">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G350">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H350">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I350">
+        <v>505.7802641789072</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>7106.172039212905</v>
+      </c>
+      <c r="L350">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>10821.99122316804</v>
+      </c>
+      <c r="C351">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D351">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E351">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F351">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G351">
+        <v>5842.769805677199</v>
+      </c>
+      <c r="H351">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I351">
+        <v>405.342521896586</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>7106.172039212904</v>
+      </c>
+      <c r="L351">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M351">
+        <v>0</v>
+      </c>
+      <c r="N351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>6835.929339425436</v>
+      </c>
+      <c r="C352">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D352">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E352">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F352">
+        <v>9788.303664450583</v>
+      </c>
+      <c r="G352">
+        <v>5678.322100617189</v>
+      </c>
+      <c r="H352">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I352">
+        <v>348.2895953984867</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>620.2133546313959</v>
+      </c>
+      <c r="L352">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>908.1846210148332</v>
+      </c>
+      <c r="C353">
+        <v>7071.101681995452</v>
+      </c>
+      <c r="D353">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E353">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F353">
+        <v>6484.668338233977</v>
+      </c>
+      <c r="G353">
+        <v>527.5068222334369</v>
+      </c>
+      <c r="H353">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I353">
+        <v>428.2224717743628</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>1281.953476882703</v>
+      </c>
+      <c r="L353">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>341.8138013893537</v>
+      </c>
+      <c r="C354">
+        <v>4231.248380288351</v>
+      </c>
+      <c r="D354">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E354">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F354">
+        <v>345.2525565084357</v>
+      </c>
+      <c r="G354">
+        <v>198.5379492166981</v>
+      </c>
+      <c r="H354">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I354">
+        <v>460.6536687236015</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>482.4893320126139</v>
+      </c>
+      <c r="L354">
+        <v>1167.271732946733</v>
+      </c>
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>276.7378851111173</v>
+      </c>
+      <c r="C355">
+        <v>209.9398146901571</v>
+      </c>
+      <c r="D355">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E355">
+        <v>11814.80989901504</v>
+      </c>
+      <c r="F355">
+        <v>279.5219558982</v>
+      </c>
+      <c r="G355">
+        <v>160.7394785032185</v>
+      </c>
+      <c r="H355">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I355">
+        <v>401.7016007063663</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>390.6310300728694</v>
+      </c>
+      <c r="L355">
+        <v>35.67021417451355</v>
+      </c>
+      <c r="M355">
+        <v>0</v>
+      </c>
+      <c r="N355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>376.4398815557906</v>
+      </c>
+      <c r="C356">
+        <v>285.5760747903199</v>
+      </c>
+      <c r="D356">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E356">
+        <v>717.2765981727911</v>
+      </c>
+      <c r="F356">
+        <v>380.226986009926</v>
+      </c>
+      <c r="G356">
+        <v>218.6500421682247</v>
+      </c>
+      <c r="H356">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I356">
+        <v>329.609046995192</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>531.3659842186171</v>
+      </c>
+      <c r="L356">
+        <v>48.52133343987941</v>
+      </c>
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>438.2121168929575</v>
+      </c>
+      <c r="C357">
+        <v>332.4379333843264</v>
+      </c>
+      <c r="D357">
+        <v>7388.026605543891</v>
+      </c>
+      <c r="E357">
+        <v>834.9787360043415</v>
+      </c>
+      <c r="F357">
+        <v>442.6206696023108</v>
+      </c>
+      <c r="G357">
+        <v>254.5296142408647</v>
+      </c>
+      <c r="H357">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I357">
+        <v>147.8088268027078</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>618.560955409397</v>
+      </c>
+      <c r="L357">
+        <v>56.48348456938763</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>933.9951971825276</v>
+      </c>
+      <c r="C358">
+        <v>708.5505424718571</v>
+      </c>
+      <c r="D358">
+        <v>891.6707408902877</v>
+      </c>
+      <c r="E358">
+        <v>1779.654416466287</v>
+      </c>
+      <c r="F358">
+        <v>943.3914847298843</v>
+      </c>
+      <c r="G358">
+        <v>542.4985482538802</v>
+      </c>
+      <c r="H358">
+        <v>7704.364714677971</v>
+      </c>
+      <c r="I358">
+        <v>1010.440713677339</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>1318.386551274062</v>
+      </c>
+      <c r="L358">
+        <v>120.3875960390845</v>
+      </c>
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>413.1967449187229</v>
+      </c>
+      <c r="C359">
+        <v>313.4606887090357</v>
+      </c>
+      <c r="D359">
+        <v>394.4725291806085</v>
+      </c>
+      <c r="E359">
+        <v>787.3139114444424</v>
+      </c>
+      <c r="F359">
+        <v>417.3536350618414</v>
+      </c>
+      <c r="G359">
+        <v>239.9997718808713</v>
+      </c>
+      <c r="H359">
+        <v>544.6290709606438</v>
+      </c>
+      <c r="I359">
+        <v>229.7891813809569</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>583.2503562912906</v>
+      </c>
+      <c r="L359">
+        <v>53.25912056292791</v>
+      </c>
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>500.7477027505989</v>
+      </c>
+      <c r="C360">
+        <v>379.8788874886845</v>
+      </c>
+      <c r="D360">
+        <v>478.0560718702257</v>
+      </c>
+      <c r="E360">
+        <v>954.1353782371697</v>
+      </c>
+      <c r="F360">
+        <v>505.7853832632144</v>
+      </c>
+      <c r="G360">
+        <v>290.852568196426</v>
+      </c>
+      <c r="H360">
+        <v>422.8512915839667</v>
+      </c>
+      <c r="I360">
+        <v>151.8109859999995</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>706.8334386292938</v>
+      </c>
+      <c r="L360">
+        <v>64.54402799724205</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>859.6077697119174</v>
+      </c>
+      <c r="C361">
+        <v>652.1185048699695</v>
+      </c>
+      <c r="D361">
+        <v>820.6542166450574</v>
+      </c>
+      <c r="E361">
+        <v>1637.915021845218</v>
+      </c>
+      <c r="F361">
+        <v>868.2556961750516</v>
+      </c>
+      <c r="G361">
+        <v>499.291611502084</v>
+      </c>
+      <c r="H361">
+        <v>515.9862881408797</v>
+      </c>
+      <c r="I361">
+        <v>159.3319566789491</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>1213.38452957527</v>
+      </c>
+      <c r="L361">
+        <v>110.7994058687999</v>
+      </c>
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>1774.784271947072</v>
+      </c>
+      <c r="C362">
+        <v>1346.392746399598</v>
+      </c>
+      <c r="D362">
+        <v>1694.35904109709</v>
+      </c>
+      <c r="E362">
+        <v>3381.711894636493</v>
+      </c>
+      <c r="F362">
+        <v>1792.639163925153</v>
+      </c>
+      <c r="G362">
+        <v>1030.859573903083</v>
+      </c>
+      <c r="H362">
+        <v>1146.376966021665</v>
+      </c>
+      <c r="I362">
+        <v>247.8827083804894</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>2505.20743854583</v>
+      </c>
+      <c r="L362">
+        <v>228.7613604783126</v>
+      </c>
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>3242.544641560866</v>
+      </c>
+      <c r="C363">
+        <v>2459.869999008326</v>
+      </c>
+      <c r="D363">
+        <v>3095.607120499331</v>
+      </c>
+      <c r="E363">
+        <v>6178.413881945431</v>
+      </c>
+      <c r="F363">
+        <v>3275.165667802923</v>
+      </c>
+      <c r="G363">
+        <v>1883.388443539713</v>
+      </c>
+      <c r="H363">
+        <v>3329.670985777384</v>
+      </c>
+      <c r="I363">
+        <v>976.1780253759948</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>4577.033436826319</v>
+      </c>
+      <c r="L363">
+        <v>417.9487813475773</v>
+      </c>
+      <c r="M363">
+        <v>0</v>
+      </c>
+      <c r="N363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>2790.097345736917</v>
+      </c>
+      <c r="C364">
+        <v>2116.632926844523</v>
+      </c>
+      <c r="D364">
+        <v>2663.662698624209</v>
+      </c>
+      <c r="E364">
+        <v>5316.311131674049</v>
+      </c>
+      <c r="F364">
+        <v>2818.166608860266</v>
+      </c>
+      <c r="G364">
+        <v>1620.590517076802</v>
+      </c>
+      <c r="H364">
+        <v>1779.355420073049</v>
+      </c>
+      <c r="I364">
+        <v>437.4281398853971</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>3938.378728778565</v>
+      </c>
+      <c r="L364">
+        <v>359.630449044649</v>
+      </c>
+      <c r="M364">
+        <v>0</v>
+      </c>
+      <c r="N364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>3398.036070977319</v>
+      </c>
+      <c r="C365">
+        <v>2577.829424276357</v>
+      </c>
+      <c r="D365">
+        <v>3244.052378556439</v>
+      </c>
+      <c r="E365">
+        <v>6474.690575785398</v>
+      </c>
+      <c r="F365">
+        <v>3432.221390254666</v>
+      </c>
+      <c r="G365">
+        <v>1973.703548990798</v>
+      </c>
+      <c r="H365">
+        <v>2544.04262202186</v>
+      </c>
+      <c r="I365">
+        <v>560.7867152707242</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>4796.518301416014</v>
+      </c>
+      <c r="L365">
+        <v>437.9908966053388</v>
+      </c>
+      <c r="M365">
+        <v>0</v>
+      </c>
+      <c r="N365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>2446.576746990149</v>
+      </c>
+      <c r="C366">
+        <v>2288.854861392441</v>
+      </c>
+      <c r="D366">
+        <v>3398.191559350357</v>
+      </c>
+      <c r="E366">
+        <v>5384.833813577637</v>
+      </c>
+      <c r="F366">
+        <v>3120.85457422624</v>
+      </c>
+      <c r="G366">
+        <v>1692.493610599811</v>
+      </c>
+      <c r="H366">
+        <v>1038.741951896311</v>
+      </c>
+      <c r="I366">
+        <v>520.3824736957149</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>4614.672222042937</v>
+      </c>
+      <c r="L366">
+        <v>150.9047422842443</v>
+      </c>
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>3197.049366922929</v>
+      </c>
+      <c r="C367">
+        <v>2990.94724684009</v>
+      </c>
+      <c r="D367">
+        <v>4440.566267487558</v>
+      </c>
+      <c r="E367">
+        <v>7036.599017734749</v>
+      </c>
+      <c r="F367">
+        <v>4078.157839545878</v>
+      </c>
+      <c r="G367">
+        <v>2211.655789235299</v>
+      </c>
+      <c r="H367">
+        <v>1750.680295568421</v>
+      </c>
+      <c r="I367">
+        <v>736.6420610139915</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>6030.195016031762</v>
+      </c>
+      <c r="L367">
+        <v>197.1938592889167</v>
+      </c>
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>3449.786284758967</v>
+      </c>
+      <c r="C368">
+        <v>3227.391136758532</v>
+      </c>
+      <c r="D368">
+        <v>4791.607150216141</v>
+      </c>
+      <c r="E368">
+        <v>7592.864543750708</v>
+      </c>
+      <c r="F368">
+        <v>4400.549183727004</v>
+      </c>
+      <c r="G368">
+        <v>2386.494211584576</v>
+      </c>
+      <c r="H368">
+        <v>5078.987745626739</v>
+      </c>
+      <c r="I368">
+        <v>1285.364102266327</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>6506.901105737521</v>
+      </c>
+      <c r="L368">
+        <v>212.7826608659289</v>
+      </c>
+      <c r="M368">
+        <v>0</v>
+      </c>
+      <c r="N368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>2407.494434801908</v>
+      </c>
+      <c r="C369">
+        <v>2252.292043423799</v>
+      </c>
+      <c r="D369">
+        <v>3343.907881733718</v>
+      </c>
+      <c r="E369">
+        <v>5298.814948057498</v>
+      </c>
+      <c r="F369">
+        <v>3071.001156419477</v>
+      </c>
+      <c r="G369">
+        <v>1665.457236716408</v>
+      </c>
+      <c r="H369">
+        <v>1737.41291830755</v>
+      </c>
+      <c r="I369">
+        <v>774.4810146779959</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>4540.956136639051</v>
+      </c>
+      <c r="L369">
+        <v>148.4941470491287</v>
+      </c>
+      <c r="M369">
+        <v>0</v>
+      </c>
+      <c r="N369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>3824.0276918371</v>
+      </c>
+      <c r="C370">
+        <v>3577.506564357084</v>
+      </c>
+      <c r="D370">
+        <v>5311.4126262785</v>
+      </c>
+      <c r="E370">
+        <v>8416.557397757597</v>
+      </c>
+      <c r="F370">
+        <v>4877.931717743771</v>
+      </c>
+      <c r="G370">
+        <v>2645.387046677876</v>
+      </c>
+      <c r="H370">
+        <v>2653.617494709725</v>
+      </c>
+      <c r="I370">
+        <v>769.1792651620194</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>7212.78594164399</v>
+      </c>
+      <c r="L370">
+        <v>235.8658538034468</v>
+      </c>
+      <c r="M370">
+        <v>0</v>
+      </c>
+      <c r="N370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>3069.859718319364</v>
+      </c>
+      <c r="C371">
+        <v>2871.957051301279</v>
+      </c>
+      <c r="D371">
+        <v>4263.905228403828</v>
+      </c>
+      <c r="E371">
+        <v>6756.658843619994</v>
+      </c>
+      <c r="F371">
+        <v>3915.914657464224</v>
+      </c>
+      <c r="G371">
+        <v>2123.668495208738</v>
+      </c>
+      <c r="H371">
+        <v>1941.736572488174</v>
+      </c>
+      <c r="I371">
+        <v>964.3302208405801</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>5790.293063614228</v>
+      </c>
+      <c r="L371">
+        <v>189.3488075580208</v>
+      </c>
+      <c r="M371">
+        <v>0</v>
+      </c>
+      <c r="N371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>3620.846413101879</v>
+      </c>
+      <c r="C372">
+        <v>3387.42364210698</v>
+      </c>
+      <c r="D372">
+        <v>5029.202429003696</v>
+      </c>
+      <c r="E372">
+        <v>7969.362180454338</v>
+      </c>
+      <c r="F372">
+        <v>4618.753572640398</v>
+      </c>
+      <c r="G372">
+        <v>2504.830239508055</v>
+      </c>
+      <c r="H372">
+        <v>1727.530384448086</v>
+      </c>
+      <c r="I372">
+        <v>707.5725306263922</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>6829.550466128224</v>
+      </c>
+      <c r="L372">
+        <v>223.3336417883356</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>4212.861007943005</v>
+      </c>
+      <c r="C373">
+        <v>3941.273213792966</v>
+      </c>
+      <c r="D373">
+        <v>5851.48564643241</v>
+      </c>
+      <c r="E373">
+        <v>9272.366556815639</v>
+      </c>
+      <c r="F373">
+        <v>5373.927698525305</v>
+      </c>
+      <c r="G373">
+        <v>2914.374277063022</v>
+      </c>
+      <c r="H373">
+        <v>4601.150611522809</v>
+      </c>
+      <c r="I373">
+        <v>707.5725306263922</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>7946.193673506974</v>
+      </c>
+      <c r="L373">
+        <v>259.8490750249661</v>
+      </c>
+      <c r="M373">
+        <v>0</v>
+      </c>
+      <c r="N373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>4536.662417797425</v>
+      </c>
+      <c r="C374">
+        <v>4244.200326945161</v>
+      </c>
+      <c r="D374">
+        <v>6301.23210103544</v>
+      </c>
+      <c r="E374">
+        <v>9985.042659379451</v>
+      </c>
+      <c r="F374">
+        <v>5786.968945781603</v>
+      </c>
+      <c r="G374">
+        <v>3005.38397412915</v>
+      </c>
+      <c r="H374">
+        <v>4361.461388160701</v>
+      </c>
+      <c r="I374">
+        <v>1005.323411636243</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>8556.939840923053</v>
+      </c>
+      <c r="L374">
+        <v>279.8211312318556</v>
+      </c>
+      <c r="M374">
+        <v>0</v>
+      </c>
+      <c r="N374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>6128.349117915786</v>
+      </c>
+      <c r="C375">
+        <v>5733.276786885157</v>
+      </c>
+      <c r="D375">
+        <v>8512.017565307742</v>
+      </c>
+      <c r="E375">
+        <v>13488.29199499233</v>
+      </c>
+      <c r="F375">
+        <v>7817.325330436419</v>
+      </c>
+      <c r="G375">
+        <v>3005.38397412915</v>
+      </c>
+      <c r="H375">
+        <v>5369.117180033022</v>
+      </c>
+      <c r="I375">
+        <v>943.0750433036034</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>11559.1397147948</v>
+      </c>
+      <c r="L375">
+        <v>377.9962943752612</v>
+      </c>
+      <c r="M375">
+        <v>0</v>
+      </c>
+      <c r="N375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>8540.625403425063</v>
+      </c>
+      <c r="C376">
+        <v>7990.042412530106</v>
+      </c>
+      <c r="D376">
+        <v>11862.56723530003</v>
+      </c>
+      <c r="E376">
+        <v>18797.6316369562</v>
+      </c>
+      <c r="F376">
+        <v>10894.42621811171</v>
+      </c>
+      <c r="G376">
+        <v>3005.38397412915</v>
+      </c>
+      <c r="H376">
+        <v>5567.644289888738</v>
+      </c>
+      <c r="I376">
+        <v>1517.534960566667</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>16109.11525932956</v>
+      </c>
+      <c r="L376">
+        <v>526.7853857581514</v>
+      </c>
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>16576.0928133648</v>
+      </c>
+      <c r="C377">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D377">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E377">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F377">
+        <v>21144.47263631928</v>
+      </c>
+      <c r="G377">
+        <v>3005.38397412915</v>
+      </c>
+      <c r="H377">
+        <v>12122.66553305744</v>
+      </c>
+      <c r="I377">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>31265.41407292632</v>
+      </c>
+      <c r="L377">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M377">
+        <v>0</v>
+      </c>
+      <c r="N377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>10676.38185443615</v>
+      </c>
+      <c r="C378">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D378">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E378">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F378">
+        <v>13618.79826071005</v>
+      </c>
+      <c r="G378">
+        <v>3005.38397412915</v>
+      </c>
+      <c r="H378">
+        <v>9910.972588399045</v>
+      </c>
+      <c r="I378">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>20137.52596815151</v>
+      </c>
+      <c r="L378">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M378">
+        <v>0</v>
+      </c>
+      <c r="N378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>8339.402346247685</v>
+      </c>
+      <c r="C379">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D379">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E379">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F379">
+        <v>10637.74598144863</v>
+      </c>
+      <c r="G379">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H379">
+        <v>7327.521084091515</v>
+      </c>
+      <c r="I379">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>15729.57333262182</v>
+      </c>
+      <c r="L379">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M379">
+        <v>0</v>
+      </c>
+      <c r="N379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>9205.473206530363</v>
+      </c>
+      <c r="C380">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D380">
+        <v>14350.85894824474</v>
+      </c>
+      <c r="E380">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F380">
+        <v>11742.50642243721</v>
+      </c>
+      <c r="G380">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H380">
+        <v>6450.03065409293</v>
+      </c>
+      <c r="I380">
+        <v>1482.693851990556</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>17363.13465301942</v>
+      </c>
+      <c r="L380">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M380">
+        <v>0</v>
+      </c>
+      <c r="N380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>10682.19335067232</v>
+      </c>
+      <c r="C381">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D381">
+        <v>14837.11448016527</v>
+      </c>
+      <c r="E381">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F381">
+        <v>13626.21140833931</v>
+      </c>
+      <c r="G381">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H381">
+        <v>4843.902286355512</v>
+      </c>
+      <c r="I381">
+        <v>1236.736961590261</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>20148.48746783982</v>
+      </c>
+      <c r="L381">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M381">
+        <v>0</v>
+      </c>
+      <c r="N381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>8820.145738697363</v>
+      </c>
+      <c r="C382">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D382">
+        <v>12250.80915133952</v>
+      </c>
+      <c r="E382">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F382">
+        <v>11250.98250354072</v>
+      </c>
+      <c r="G382">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H382">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I382">
+        <v>1149.098500072102</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>16636.33956499014</v>
+      </c>
+      <c r="L382">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>8051.449024589204</v>
+      </c>
+      <c r="C383">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D383">
+        <v>11183.12194765941</v>
+      </c>
+      <c r="E383">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F383">
+        <v>10270.43257418803</v>
+      </c>
+      <c r="G383">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H383">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I383">
+        <v>1201.120286121707</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>15186.44293773961</v>
+      </c>
+      <c r="L383">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M383">
+        <v>0</v>
+      </c>
+      <c r="N383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C384">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D384">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E384">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F384">
+        <v>16058.16700804004</v>
+      </c>
+      <c r="G384">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H384">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I384">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>22708.26048573244</v>
+      </c>
+      <c r="L384">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M384">
+        <v>0</v>
+      </c>
+      <c r="N384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C385">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D385">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E385">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F385">
+        <v>16326.18175424101</v>
+      </c>
+      <c r="G385">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H385">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I385">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>22708.26048573244</v>
+      </c>
+      <c r="L385">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M385">
+        <v>0</v>
+      </c>
+      <c r="N385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C386">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D386">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E386">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F386">
+        <v>16326.18175424101</v>
+      </c>
+      <c r="G386">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H386">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I386">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>22708.26048573244</v>
+      </c>
+      <c r="L386">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M386">
+        <v>0</v>
+      </c>
+      <c r="N386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C387">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D387">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E387">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F387">
+        <v>16326.18175424101</v>
+      </c>
+      <c r="G387">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H387">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I387">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>22708.26048573244</v>
+      </c>
+      <c r="L387">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M387">
+        <v>0</v>
+      </c>
+      <c r="N387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C388">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D388">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E388">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F388">
+        <v>16326.18175424101</v>
+      </c>
+      <c r="G388">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H388">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I388">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>22708.26048573244</v>
+      </c>
+      <c r="L388">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M388">
+        <v>0</v>
+      </c>
+      <c r="N388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C389">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D389">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E389">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F389">
+        <v>16326.18175424101</v>
+      </c>
+      <c r="G389">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H389">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I389">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>22708.26048573244</v>
+      </c>
+      <c r="L389">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M389">
+        <v>0</v>
+      </c>
+      <c r="N389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C390">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D390">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E390">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F390">
+        <v>16326.18175424101</v>
+      </c>
+      <c r="G390">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H390">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I390">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>22708.26048573244</v>
+      </c>
+      <c r="L390">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M390">
+        <v>0</v>
+      </c>
+      <c r="N390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C391">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D391">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E391">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F391">
+        <v>16326.18175424101</v>
+      </c>
+      <c r="G391">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H391">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I391">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>22708.26048573244</v>
+      </c>
+      <c r="L391">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C392">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D392">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E392">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F392">
+        <v>16326.18175424101</v>
+      </c>
+      <c r="G392">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H392">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I392">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>22708.26048573244</v>
+      </c>
+      <c r="L392">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M392">
+        <v>0</v>
+      </c>
+      <c r="N392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C393">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D393">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E393">
+        <v>22739.95577803341</v>
+      </c>
+      <c r="F393">
+        <v>16326.18175424101</v>
+      </c>
+      <c r="G393">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H393">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I393">
+        <v>1682.305185887457</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>22708.26048573244</v>
+      </c>
+      <c r="L393">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M393">
+        <v>0</v>
+      </c>
+      <c r="N393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C394">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D394">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E394">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F394">
+        <v>16326.18175424101</v>
+      </c>
+      <c r="G394">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H394">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I394">
+        <v>1231.222010654821</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>22708.26048573244</v>
+      </c>
+      <c r="L394">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M394">
+        <v>0</v>
+      </c>
+      <c r="N394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C395">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D395">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E395">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F395">
+        <v>16326.18175424101</v>
+      </c>
+      <c r="G395">
+        <v>9292.198193310425</v>
+      </c>
+      <c r="H395">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I395">
+        <v>406.9800389522482</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>7209.583487584191</v>
+      </c>
+      <c r="L395">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M395">
+        <v>0</v>
+      </c>
+      <c r="N395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>11647.4050550955</v>
+      </c>
+      <c r="C396">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D396">
+        <v>15956.92154256025</v>
+      </c>
+      <c r="E396">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F396">
+        <v>9760.563401124289</v>
+      </c>
+      <c r="G396">
+        <v>1738.520035379483</v>
+      </c>
+      <c r="H396">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I396">
+        <v>558.3499059545782</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>7209.583487584191</v>
+      </c>
+      <c r="L396">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M396">
+        <v>0</v>
+      </c>
+      <c r="N396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>10454.26364844614</v>
+      </c>
+      <c r="C397">
+        <v>9505.723567976205</v>
+      </c>
+      <c r="D397">
+        <v>15956.92154256026</v>
+      </c>
+      <c r="E397">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F397">
+        <v>1075.401959045972</v>
+      </c>
+      <c r="G397">
+        <v>583.2091503216203</v>
+      </c>
+      <c r="H397">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I397">
+        <v>421.9899522922536</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>7209.583487584191</v>
+      </c>
+      <c r="L397">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M397">
+        <v>0</v>
+      </c>
+      <c r="N397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>1128.428331127072</v>
+      </c>
+      <c r="C398">
+        <v>5213.13879317375</v>
+      </c>
+      <c r="D398">
+        <v>3001.752321818917</v>
+      </c>
+      <c r="E398">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F398">
+        <v>1439.423767603799</v>
+      </c>
+      <c r="G398">
+        <v>780.6244961667118</v>
+      </c>
+      <c r="H398">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I398">
+        <v>458.3152675105758</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>7209.583487584191</v>
+      </c>
+      <c r="L398">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M398">
+        <v>0</v>
+      </c>
+      <c r="N398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>1402.190863334949</v>
+      </c>
+      <c r="C399">
+        <v>5213.13879317375</v>
+      </c>
+      <c r="D399">
+        <v>1947.583766683366</v>
+      </c>
+      <c r="E399">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F399">
+        <v>1788.635396441432</v>
+      </c>
+      <c r="G399">
+        <v>970.0080244592421</v>
+      </c>
+      <c r="H399">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I399">
+        <v>505.0734461270536</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>7209.58348758419</v>
+      </c>
+      <c r="L399">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M399">
+        <v>0</v>
+      </c>
+      <c r="N399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>1397.459547377458</v>
+      </c>
+      <c r="C400">
+        <v>5213.13879317375</v>
+      </c>
+      <c r="D400">
+        <v>1941.012169053681</v>
+      </c>
+      <c r="E400">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F400">
+        <v>1782.600127338916</v>
+      </c>
+      <c r="G400">
+        <v>966.7349932585519</v>
+      </c>
+      <c r="H400">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I400">
+        <v>449.9400691082083</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>7209.583487584191</v>
+      </c>
+      <c r="L400">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M400">
+        <v>0</v>
+      </c>
+      <c r="N400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>3009.325404807174</v>
+      </c>
+      <c r="C401">
+        <v>5213.13879317375</v>
+      </c>
+      <c r="D401">
+        <v>4179.825628824023</v>
+      </c>
+      <c r="E401">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F401">
+        <v>3838.697055582501</v>
+      </c>
+      <c r="G401">
+        <v>2081.792049285891</v>
+      </c>
+      <c r="H401">
+        <v>7486.643745632065</v>
+      </c>
+      <c r="I401">
+        <v>713.5400036759172</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>7209.583487584191</v>
+      </c>
+      <c r="L401">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>3422.687025135957</v>
+      </c>
+      <c r="C402">
+        <v>5213.13879317375</v>
+      </c>
+      <c r="D402">
+        <v>4753.967425474686</v>
+      </c>
+      <c r="E402">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F402">
+        <v>4365.981354021004</v>
+      </c>
+      <c r="G402">
+        <v>2367.747477471144</v>
+      </c>
+      <c r="H402">
+        <v>3389.400582415213</v>
+      </c>
+      <c r="I402">
+        <v>433.4466294931911</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>7209.583487584191</v>
+      </c>
+      <c r="L402">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M402">
+        <v>0</v>
+      </c>
+      <c r="N402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>2781.116791194013</v>
+      </c>
+      <c r="C403">
+        <v>5213.13879317375</v>
+      </c>
+      <c r="D403">
+        <v>3862.853522592191</v>
+      </c>
+      <c r="E403">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F403">
+        <v>3547.594029058343</v>
+      </c>
+      <c r="G403">
+        <v>1923.92182473672</v>
+      </c>
+      <c r="H403">
+        <v>1775.637471290578</v>
+      </c>
+      <c r="I403">
+        <v>400.5701615556137</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>7209.583487584191</v>
+      </c>
+      <c r="L403">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M403">
+        <v>0</v>
+      </c>
+      <c r="N403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>4332.470444064609</v>
+      </c>
+      <c r="C404">
+        <v>4570.436835225999</v>
+      </c>
+      <c r="D404">
+        <v>6017.618091182865</v>
+      </c>
+      <c r="E404">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F404">
+        <v>5526.501557612272</v>
+      </c>
+      <c r="G404">
+        <v>2997.117729379532</v>
+      </c>
+      <c r="H404">
+        <v>2051.459897962701</v>
+      </c>
+      <c r="I404">
+        <v>554.3028302165214</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>7209.583487584191</v>
+      </c>
+      <c r="L404">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M404">
+        <v>0</v>
+      </c>
+      <c r="N404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>2730.945259829036</v>
+      </c>
+      <c r="C405">
+        <v>2554.891172674706</v>
+      </c>
+      <c r="D405">
+        <v>3793.167388848833</v>
+      </c>
+      <c r="E405">
+        <v>14389.0396866892</v>
+      </c>
+      <c r="F405">
+        <v>3483.595197487271</v>
+      </c>
+      <c r="G405">
+        <v>1889.214147418321</v>
+      </c>
+      <c r="H405">
+        <v>1302.203655790084</v>
+      </c>
+      <c r="I405">
+        <v>652.2396541038427</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>7209.583487584191</v>
+      </c>
+      <c r="L405">
+        <v>532.8638899199327</v>
+      </c>
+      <c r="M405">
+        <v>0</v>
+      </c>
+      <c r="N405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>1027.832594647719</v>
+      </c>
+      <c r="C406">
+        <v>961.5719735141056</v>
+      </c>
+      <c r="D406">
+        <v>1427.615974791703</v>
+      </c>
+      <c r="E406">
+        <v>2998.281596098833</v>
+      </c>
+      <c r="F406">
+        <v>1311.103793695165</v>
+      </c>
+      <c r="G406">
+        <v>711.0343468062459</v>
+      </c>
+      <c r="H406">
+        <v>1113.314283083551</v>
+      </c>
+      <c r="I406">
+        <v>454.7921435421781</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>7209.583487584192</v>
+      </c>
+      <c r="L406">
+        <v>303.3459193056011</v>
+      </c>
+      <c r="M406">
+        <v>0</v>
+      </c>
+      <c r="N406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>832.1462510040377</v>
+      </c>
+      <c r="C407">
+        <v>778.5008152077212</v>
+      </c>
+      <c r="D407">
+        <v>1155.815925163924</v>
+      </c>
+      <c r="E407">
+        <v>1831.526141888263</v>
+      </c>
+      <c r="F407">
+        <v>1061.486191702788</v>
+      </c>
+      <c r="G407">
+        <v>575.6623881272387</v>
+      </c>
+      <c r="H407">
+        <v>988.5888481049336</v>
+      </c>
+      <c r="I407">
+        <v>415.9795630265085</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>7209.583487584191</v>
+      </c>
+      <c r="L407">
+        <v>51.32674284796101</v>
+      </c>
+      <c r="M407">
+        <v>0</v>
+      </c>
+      <c r="N407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>1131.956288353051</v>
+      </c>
+      <c r="C408">
+        <v>1058.983192196201</v>
+      </c>
+      <c r="D408">
+        <v>1572.239378702141</v>
+      </c>
+      <c r="E408">
+        <v>2491.398033809519</v>
+      </c>
+      <c r="F408">
+        <v>1443.924031680908</v>
+      </c>
+      <c r="G408">
+        <v>783.0650674959312</v>
+      </c>
+      <c r="H408">
+        <v>1162.252469868353</v>
+      </c>
+      <c r="I408">
+        <v>437.0801647540457</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>5553.489020583092</v>
+      </c>
+      <c r="L408">
+        <v>69.81901229180393</v>
+      </c>
+      <c r="M408">
+        <v>0</v>
+      </c>
+      <c r="N408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>2233.572776247055</v>
+      </c>
+      <c r="C409">
+        <v>2089.582480286471</v>
+      </c>
+      <c r="D409">
+        <v>3102.338058585352</v>
+      </c>
+      <c r="E409">
+        <v>4916.019178804876</v>
+      </c>
+      <c r="F409">
+        <v>2849.146598075589</v>
+      </c>
+      <c r="G409">
+        <v>1545.141658547384</v>
+      </c>
+      <c r="H409">
+        <v>1897.177526853943</v>
+      </c>
+      <c r="I409">
+        <v>494.6265303825855</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>4212.909429119212</v>
+      </c>
+      <c r="L409">
+        <v>137.7666670736256</v>
+      </c>
+      <c r="M409">
+        <v>0</v>
+      </c>
+      <c r="N409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>3011.378379021037</v>
+      </c>
+      <c r="C410">
+        <v>2817.245790794782</v>
+      </c>
+      <c r="D410">
+        <v>4182.677123122617</v>
+      </c>
+      <c r="E410">
+        <v>6627.943366492881</v>
+      </c>
+      <c r="F410">
+        <v>3841.315830560227</v>
+      </c>
+      <c r="G410">
+        <v>2083.212256415696</v>
+      </c>
+      <c r="H410">
+        <v>2223.352521303598</v>
+      </c>
+      <c r="I410">
+        <v>640.0361950702872</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>5679.987015663817</v>
+      </c>
+      <c r="L410">
+        <v>185.7416812146072</v>
+      </c>
+      <c r="M410">
+        <v>0</v>
+      </c>
+      <c r="N410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>2227.293833574498</v>
+      </c>
+      <c r="C411">
+        <v>2083.708318162529</v>
+      </c>
+      <c r="D411">
+        <v>3093.616872945957</v>
+      </c>
+      <c r="E411">
+        <v>4902.199435419227</v>
+      </c>
+      <c r="F411">
+        <v>2841.137175528325</v>
+      </c>
+      <c r="G411">
+        <v>1540.798009664225</v>
+      </c>
+      <c r="H411">
+        <v>1773.041417288963</v>
+      </c>
+      <c r="I411">
+        <v>721.27280910399</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>4201.066243586408</v>
+      </c>
+      <c r="L411">
+        <v>137.3793821756614</v>
+      </c>
+      <c r="M411">
+        <v>0</v>
+      </c>
+      <c r="N411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>1840.573501697938</v>
+      </c>
+      <c r="C412">
+        <v>1721.91843656413</v>
+      </c>
+      <c r="D412">
+        <v>2556.478698462446</v>
+      </c>
+      <c r="E412">
+        <v>4051.040884170537</v>
+      </c>
+      <c r="F412">
+        <v>2347.836518531559</v>
+      </c>
+      <c r="G412">
+        <v>1273.272500155755</v>
+      </c>
+      <c r="H412">
+        <v>1996.685878492081</v>
+      </c>
+      <c r="I412">
+        <v>765.7866272665256</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>3471.643970034009</v>
+      </c>
+      <c r="L412">
+        <v>113.526489725137</v>
+      </c>
+      <c r="M412">
+        <v>0</v>
+      </c>
+      <c r="N412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>2621.711239542115</v>
+      </c>
+      <c r="C413">
+        <v>2452.699071539624</v>
+      </c>
+      <c r="D413">
+        <v>3641.445957592046</v>
+      </c>
+      <c r="E413">
+        <v>5770.298990003342</v>
+      </c>
+      <c r="F413">
+        <v>3344.256224249278</v>
+      </c>
+      <c r="G413">
+        <v>1813.648203442443</v>
+      </c>
+      <c r="H413">
+        <v>2405.756292278507</v>
+      </c>
+      <c r="I413">
+        <v>564.807962824285</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>4945.006546889031</v>
+      </c>
+      <c r="L413">
+        <v>161.7070298054306</v>
+      </c>
+      <c r="M413">
+        <v>0</v>
+      </c>
+      <c r="N413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>3331.029622541583</v>
+      </c>
+      <c r="C414">
+        <v>3116.290283710126</v>
+      </c>
+      <c r="D414">
+        <v>4626.659172328178</v>
+      </c>
+      <c r="E414">
+        <v>7331.485091386298</v>
+      </c>
+      <c r="F414">
+        <v>4249.063123476936</v>
+      </c>
+      <c r="G414">
+        <v>2304.340691460446</v>
+      </c>
+      <c r="H414">
+        <v>1953.251084416174</v>
+      </c>
+      <c r="I414">
+        <v>399.2693157826668</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>6282.905242541612</v>
+      </c>
+      <c r="L414">
+        <v>205.4577553511118</v>
+      </c>
+      <c r="M414">
+        <v>0</v>
+      </c>
+      <c r="N414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>3220.390104523632</v>
+      </c>
+      <c r="C415">
+        <v>3012.783292159976</v>
+      </c>
+      <c r="D415">
+        <v>4472.98556420543</v>
+      </c>
+      <c r="E415">
+        <v>7087.971202654242</v>
+      </c>
+      <c r="F415">
+        <v>4107.931296600344</v>
+      </c>
+      <c r="G415">
+        <v>2227.802451834163</v>
+      </c>
+      <c r="H415">
+        <v>1669.01188196466</v>
+      </c>
+      <c r="I415">
+        <v>1572.347141098365</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>6074.219734888616</v>
+      </c>
+      <c r="L415">
+        <v>198.6335149206851</v>
+      </c>
+      <c r="M415">
+        <v>0</v>
+      </c>
+      <c r="N415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>4051.623571607968</v>
+      </c>
+      <c r="C416">
+        <v>3790.430167300384</v>
+      </c>
+      <c r="D416">
+        <v>5627.533671135057</v>
+      </c>
+      <c r="E416">
+        <v>8917.488337581513</v>
+      </c>
+      <c r="F416">
+        <v>5168.25314065919</v>
+      </c>
+      <c r="G416">
+        <v>2802.833394022151</v>
+      </c>
+      <c r="H416">
+        <v>2537.054972255391</v>
+      </c>
+      <c r="I416">
+        <v>704.5725992503717</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>7642.071630524231</v>
+      </c>
+      <c r="L416">
+        <v>249.9039572980669</v>
+      </c>
+      <c r="M416">
+        <v>0</v>
+      </c>
+      <c r="N416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>2968.815485934828</v>
+      </c>
+      <c r="C417">
+        <v>2777.426772292647</v>
+      </c>
+      <c r="D417">
+        <v>4123.559065941283</v>
+      </c>
+      <c r="E417">
+        <v>6534.263858512489</v>
+      </c>
+      <c r="F417">
+        <v>3787.022581945071</v>
+      </c>
+      <c r="G417">
+        <v>2053.768085213761</v>
+      </c>
+      <c r="H417">
+        <v>2294.594408358383</v>
+      </c>
+      <c r="I417">
+        <v>903.2547088095087</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>5599.705945120518</v>
+      </c>
+      <c r="L417">
+        <v>183.116403908286</v>
+      </c>
+      <c r="M417">
+        <v>0</v>
+      </c>
+      <c r="N417">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
